--- a/FinalOutput-By_Ticker.xlsx
+++ b/FinalOutput-By_Ticker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>dollarsTradedTodayApprox</t>
   </si>
@@ -22,13 +22,121 @@
     <t>Ticker</t>
   </si>
   <si>
-    <t>CACC</t>
-  </si>
-  <si>
-    <t>ALLT</t>
-  </si>
-  <si>
-    <t>HUBB</t>
+    <t>contractSymbol</t>
+  </si>
+  <si>
+    <t>GSUM</t>
+  </si>
+  <si>
+    <t>SPNS</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>GSUM210416C00002500</t>
+  </si>
+  <si>
+    <t>GSUM210521C00002500</t>
+  </si>
+  <si>
+    <t>GSUM210521C00005000</t>
+  </si>
+  <si>
+    <t>GSUM210521C00007500</t>
+  </si>
+  <si>
+    <t>GSUM210820C00002500</t>
+  </si>
+  <si>
+    <t>GSUM210820C00005000</t>
+  </si>
+  <si>
+    <t>GSUM210820C00007500</t>
+  </si>
+  <si>
+    <t>GSUM211119C00002500</t>
+  </si>
+  <si>
+    <t>GSUM211119C00005000</t>
+  </si>
+  <si>
+    <t>SPNS210416C00025000</t>
+  </si>
+  <si>
+    <t>SPNS210416C00030000</t>
+  </si>
+  <si>
+    <t>SPNS210416C00035000</t>
+  </si>
+  <si>
+    <t>SPNS210416C00040000</t>
+  </si>
+  <si>
+    <t>SPNS210416C00045000</t>
+  </si>
+  <si>
+    <t>SPNS210716C00030000</t>
+  </si>
+  <si>
+    <t>SPNS210716C00035000</t>
+  </si>
+  <si>
+    <t>SPNS210716C00040000</t>
+  </si>
+  <si>
+    <t>SPNS210716C00045000</t>
+  </si>
+  <si>
+    <t>$15</t>
+  </si>
+  <si>
+    <t>$52</t>
+  </si>
+  <si>
+    <t>$150</t>
+  </si>
+  <si>
+    <t>$45</t>
+  </si>
+  <si>
+    <t>$3968</t>
+  </si>
+  <si>
+    <t>$25</t>
+  </si>
+  <si>
+    <t>$8</t>
+  </si>
+  <si>
+    <t>$4408</t>
+  </si>
+  <si>
+    <t>$125</t>
+  </si>
+  <si>
+    <t>$30</t>
+  </si>
+  <si>
+    <t>$1365</t>
+  </si>
+  <si>
+    <t>$160</t>
+  </si>
+  <si>
+    <t>$180</t>
+  </si>
+  <si>
+    <t>$60</t>
+  </si>
+  <si>
+    <t>$350</t>
+  </si>
+  <si>
+    <t>$31500</t>
+  </si>
+  <si>
+    <t>$31500$4408$3968$1365$350$180$160$160$150$125$60$52$45$30$25$25$15$8</t>
   </si>
 </sst>
 </file>
@@ -386,45 +494,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>557315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>102400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>14945</v>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FinalOutput-By_Ticker.xlsx
+++ b/FinalOutput-By_Ticker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="225">
   <si>
     <t>dollarsTradedTodayApprox</t>
   </si>
@@ -22,682 +22,673 @@
     <t>Ticker</t>
   </si>
   <si>
+    <t>CMG</t>
+  </si>
+  <si>
+    <t>RNG</t>
+  </si>
+  <si>
+    <t>HUBS</t>
+  </si>
+  <si>
+    <t>BHP</t>
+  </si>
+  <si>
+    <t>FUN</t>
+  </si>
+  <si>
+    <t>TMO</t>
+  </si>
+  <si>
+    <t>RVLV</t>
+  </si>
+  <si>
+    <t>ETN</t>
+  </si>
+  <si>
+    <t>BAX</t>
+  </si>
+  <si>
+    <t>SPT</t>
+  </si>
+  <si>
+    <t>HAS</t>
+  </si>
+  <si>
+    <t>NTES</t>
+  </si>
+  <si>
+    <t>CMA</t>
+  </si>
+  <si>
+    <t>TJX</t>
+  </si>
+  <si>
+    <t>CRNC</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>CEVA</t>
+  </si>
+  <si>
+    <t>SNA</t>
+  </si>
+  <si>
+    <t>SPB</t>
+  </si>
+  <si>
+    <t>DXC</t>
+  </si>
+  <si>
+    <t>LKQ</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>WELL</t>
+  </si>
+  <si>
+    <t>INFN</t>
+  </si>
+  <si>
+    <t>GSHD</t>
+  </si>
+  <si>
+    <t>ARMK</t>
+  </si>
+  <si>
+    <t>QELL</t>
+  </si>
+  <si>
+    <t>AXL</t>
+  </si>
+  <si>
+    <t>AOS</t>
+  </si>
+  <si>
+    <t>EVR</t>
+  </si>
+  <si>
+    <t>QGEN</t>
+  </si>
+  <si>
+    <t>RAMP</t>
+  </si>
+  <si>
+    <t>CGRO</t>
+  </si>
+  <si>
+    <t>BECN</t>
+  </si>
+  <si>
+    <t>CRS</t>
+  </si>
+  <si>
+    <t>PEAK</t>
+  </si>
+  <si>
+    <t>RSG</t>
+  </si>
+  <si>
+    <t>BBD</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>TROW</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>AZEK</t>
+  </si>
+  <si>
+    <t>QRTEA</t>
+  </si>
+  <si>
+    <t>SWAV</t>
+  </si>
+  <si>
+    <t>GNTX</t>
+  </si>
+  <si>
+    <t>GPC</t>
+  </si>
+  <si>
+    <t>PAGS</t>
+  </si>
+  <si>
+    <t>CPA</t>
+  </si>
+  <si>
+    <t>YELP</t>
+  </si>
+  <si>
+    <t>ING</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>ICAD</t>
+  </si>
+  <si>
+    <t>ELF</t>
+  </si>
+  <si>
+    <t>LBTYA</t>
+  </si>
+  <si>
+    <t>BHF</t>
+  </si>
+  <si>
+    <t>HTZGQ</t>
+  </si>
+  <si>
+    <t>BRX</t>
+  </si>
+  <si>
+    <t>PFSI</t>
+  </si>
+  <si>
+    <t>CNCE</t>
+  </si>
+  <si>
+    <t>SVMK</t>
+  </si>
+  <si>
+    <t>CATM</t>
+  </si>
+  <si>
+    <t>DGLY</t>
+  </si>
+  <si>
+    <t>SBRA</t>
+  </si>
+  <si>
+    <t>CBRE</t>
+  </si>
+  <si>
+    <t>AIMC</t>
+  </si>
+  <si>
+    <t>CNDT</t>
+  </si>
+  <si>
+    <t>SWX</t>
+  </si>
+  <si>
+    <t>TWNK</t>
+  </si>
+  <si>
+    <t>CPST</t>
+  </si>
+  <si>
+    <t>REPH</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>BNL</t>
+  </si>
+  <si>
+    <t>MTZ</t>
+  </si>
+  <si>
+    <t>PVG</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>FTS</t>
+  </si>
+  <si>
+    <t>MODN</t>
+  </si>
+  <si>
     <t>ADAP</t>
   </si>
   <si>
-    <t>AIMC</t>
-  </si>
-  <si>
-    <t>AOS</t>
-  </si>
-  <si>
-    <t>ARMK</t>
-  </si>
-  <si>
-    <t>AXL</t>
-  </si>
-  <si>
-    <t>AZEK</t>
-  </si>
-  <si>
-    <t>BAX</t>
-  </si>
-  <si>
-    <t>BBD</t>
-  </si>
-  <si>
-    <t>BECN</t>
-  </si>
-  <si>
-    <t>BHF</t>
-  </si>
-  <si>
-    <t>BHP</t>
+    <t>RLJ</t>
+  </si>
+  <si>
+    <t>ONEM</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>VNE</t>
+  </si>
+  <si>
+    <t>MEOH</t>
+  </si>
+  <si>
+    <t>GBDC</t>
+  </si>
+  <si>
+    <t>DHX</t>
+  </si>
+  <si>
+    <t>WRB</t>
+  </si>
+  <si>
+    <t>CAJ</t>
+  </si>
+  <si>
+    <t>KW</t>
   </si>
   <si>
     <t>BHR</t>
   </si>
   <si>
-    <t>BNL</t>
-  </si>
-  <si>
-    <t>BRX</t>
-  </si>
-  <si>
-    <t>CAJ</t>
-  </si>
-  <si>
-    <t>CATM</t>
-  </si>
-  <si>
-    <t>CBRE</t>
-  </si>
-  <si>
-    <t>CEVA</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>CGRO</t>
-  </si>
-  <si>
-    <t>CMA</t>
-  </si>
-  <si>
-    <t>CMG</t>
-  </si>
-  <si>
-    <t>CNCE</t>
-  </si>
-  <si>
-    <t>CNDT</t>
-  </si>
-  <si>
-    <t>CPA</t>
-  </si>
-  <si>
-    <t>CPST</t>
-  </si>
-  <si>
-    <t>CRNC</t>
-  </si>
-  <si>
-    <t>CRS</t>
-  </si>
-  <si>
-    <t>DGLY</t>
-  </si>
-  <si>
-    <t>DHX</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>ELF</t>
+    <t>ZYME</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>JBGS</t>
+  </si>
+  <si>
+    <t>LZB</t>
+  </si>
+  <si>
+    <t>LSXMK</t>
+  </si>
+  <si>
+    <t>LBRDK</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>GTIM</t>
+  </si>
+  <si>
+    <t>WSR</t>
+  </si>
+  <si>
+    <t>NVT</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>OSPN</t>
   </si>
   <si>
     <t>ELVT</t>
   </si>
   <si>
-    <t>ETN</t>
-  </si>
-  <si>
-    <t>EVR</t>
-  </si>
-  <si>
-    <t>FTS</t>
-  </si>
-  <si>
-    <t>FUN</t>
-  </si>
-  <si>
-    <t>GBDC</t>
-  </si>
-  <si>
-    <t>GNTX</t>
-  </si>
-  <si>
-    <t>GPC</t>
-  </si>
-  <si>
-    <t>GSHD</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>HAS</t>
-  </si>
-  <si>
-    <t>HTZGQ</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>ICAD</t>
-  </si>
-  <si>
-    <t>INFN</t>
-  </si>
-  <si>
-    <t>ING</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>JBGS</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>KNX</t>
-  </si>
-  <si>
-    <t>KW</t>
+    <t>THS</t>
+  </si>
+  <si>
+    <t>PNNT</t>
   </si>
   <si>
     <t>LAND</t>
   </si>
   <si>
-    <t>LBRDK</t>
-  </si>
-  <si>
-    <t>LBTYA</t>
-  </si>
-  <si>
-    <t>LKQ</t>
+    <t>MGP</t>
   </si>
   <si>
     <t>LNTH</t>
   </si>
   <si>
-    <t>LSXMK</t>
+    <t>TRST</t>
   </si>
   <si>
     <t>LXU</t>
   </si>
   <si>
-    <t>LZB</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>MEOH</t>
-  </si>
-  <si>
-    <t>MGP</t>
-  </si>
-  <si>
-    <t>MODN</t>
-  </si>
-  <si>
-    <t>MTZ</t>
-  </si>
-  <si>
-    <t>NTES</t>
-  </si>
-  <si>
-    <t>NVT</t>
-  </si>
-  <si>
-    <t>ONEM</t>
-  </si>
-  <si>
     <t>ORCC</t>
   </si>
   <si>
-    <t>OSPN</t>
-  </si>
-  <si>
-    <t>PAGS</t>
-  </si>
-  <si>
     <t>PARR</t>
   </si>
   <si>
-    <t>PEAK</t>
-  </si>
-  <si>
-    <t>PFSI</t>
-  </si>
-  <si>
-    <t>PNNT</t>
-  </si>
-  <si>
-    <t>PSN</t>
-  </si>
-  <si>
-    <t>PVG</t>
-  </si>
-  <si>
-    <t>PWR</t>
-  </si>
-  <si>
-    <t>QGEN</t>
-  </si>
-  <si>
-    <t>QRTEA</t>
-  </si>
-  <si>
-    <t>RAMP</t>
-  </si>
-  <si>
-    <t>REPH</t>
-  </si>
-  <si>
-    <t>RLJ</t>
-  </si>
-  <si>
-    <t>RNG</t>
-  </si>
-  <si>
-    <t>RSG</t>
-  </si>
-  <si>
-    <t>RVLV</t>
-  </si>
-  <si>
-    <t>SBRA</t>
-  </si>
-  <si>
-    <t>SNA</t>
-  </si>
-  <si>
-    <t>SPB</t>
-  </si>
-  <si>
-    <t>SPT</t>
-  </si>
-  <si>
-    <t>SVMK</t>
-  </si>
-  <si>
-    <t>SWAV</t>
-  </si>
-  <si>
-    <t>SWX</t>
-  </si>
-  <si>
-    <t>TDS</t>
-  </si>
-  <si>
-    <t>THS</t>
-  </si>
-  <si>
-    <t>TJX</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>TMO</t>
-  </si>
-  <si>
-    <t>TROW</t>
-  </si>
-  <si>
-    <t>TRST</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>TWNK</t>
-  </si>
-  <si>
-    <t>UNVR</t>
-  </si>
-  <si>
-    <t>VNE</t>
-  </si>
-  <si>
-    <t>VVPR</t>
-  </si>
-  <si>
-    <t>WCN</t>
-  </si>
-  <si>
-    <t>WELL</t>
-  </si>
-  <si>
-    <t>WRB</t>
-  </si>
-  <si>
-    <t>WSR</t>
-  </si>
-  <si>
-    <t>WY</t>
-  </si>
-  <si>
-    <t>YELP</t>
-  </si>
-  <si>
-    <t>ZYME</t>
-  </si>
-  <si>
-    <t>$2,182.5</t>
+    <t>$10,319,970.0</t>
+  </si>
+  <si>
+    <t>$1,482,012.5</t>
+  </si>
+  <si>
+    <t>$1,126,530.0</t>
+  </si>
+  <si>
+    <t>$614,252.5</t>
+  </si>
+  <si>
+    <t>$333,615.0</t>
+  </si>
+  <si>
+    <t>$266,695.0</t>
+  </si>
+  <si>
+    <t>$192,265.5</t>
+  </si>
+  <si>
+    <t>$168,172.5</t>
+  </si>
+  <si>
+    <t>$166,404.0</t>
+  </si>
+  <si>
+    <t>$159,580.0</t>
+  </si>
+  <si>
+    <t>$143,687.5</t>
+  </si>
+  <si>
+    <t>$120,786.17000000003</t>
+  </si>
+  <si>
+    <t>$113,227.5</t>
+  </si>
+  <si>
+    <t>$105,630.0</t>
+  </si>
+  <si>
+    <t>$99,065.0</t>
+  </si>
+  <si>
+    <t>$95,340.0</t>
+  </si>
+  <si>
+    <t>$80,340.0</t>
+  </si>
+  <si>
+    <t>$79,300.0</t>
+  </si>
+  <si>
+    <t>$77,895.0</t>
+  </si>
+  <si>
+    <t>$71,624.0</t>
+  </si>
+  <si>
+    <t>$69,995.0</t>
+  </si>
+  <si>
+    <t>$64,720.0</t>
+  </si>
+  <si>
+    <t>$48,657.5</t>
+  </si>
+  <si>
+    <t>$46,118.5</t>
+  </si>
+  <si>
+    <t>$46,115.0</t>
+  </si>
+  <si>
+    <t>$45,591.0</t>
+  </si>
+  <si>
+    <t>$44,147.5</t>
+  </si>
+  <si>
+    <t>$41,126.0</t>
+  </si>
+  <si>
+    <t>$40,030.0</t>
+  </si>
+  <si>
+    <t>$38,995.0</t>
+  </si>
+  <si>
+    <t>$37,121.0</t>
+  </si>
+  <si>
+    <t>$35,835.0</t>
+  </si>
+  <si>
+    <t>$35,327.5</t>
+  </si>
+  <si>
+    <t>$33,457.5</t>
+  </si>
+  <si>
+    <t>$33,290.0</t>
+  </si>
+  <si>
+    <t>$32,698.0</t>
+  </si>
+  <si>
+    <t>$31,860.0</t>
+  </si>
+  <si>
+    <t>$31,258.0</t>
+  </si>
+  <si>
+    <t>$30,070.0</t>
+  </si>
+  <si>
+    <t>$29,251.5</t>
+  </si>
+  <si>
+    <t>$27,065.0</t>
+  </si>
+  <si>
+    <t>$23,480.0</t>
+  </si>
+  <si>
+    <t>$22,130.0</t>
+  </si>
+  <si>
+    <t>$21,865.0</t>
+  </si>
+  <si>
+    <t>$21,125.0</t>
+  </si>
+  <si>
+    <t>$20,420.0</t>
+  </si>
+  <si>
+    <t>$19,347.5</t>
+  </si>
+  <si>
+    <t>$19,322.5</t>
+  </si>
+  <si>
+    <t>$19,205.0</t>
+  </si>
+  <si>
+    <t>$18,947.0</t>
+  </si>
+  <si>
+    <t>$18,127.0</t>
+  </si>
+  <si>
+    <t>$15,057.0</t>
+  </si>
+  <si>
+    <t>$11,945.0</t>
+  </si>
+  <si>
+    <t>$11,842.5</t>
+  </si>
+  <si>
+    <t>$10,377.5</t>
+  </si>
+  <si>
+    <t>$9,542.5</t>
+  </si>
+  <si>
+    <t>$9,348.0</t>
+  </si>
+  <si>
+    <t>$8,945.0</t>
+  </si>
+  <si>
+    <t>$8,545.0</t>
+  </si>
+  <si>
+    <t>$7,680.0</t>
+  </si>
+  <si>
+    <t>$7,085.0</t>
+  </si>
+  <si>
+    <t>$7,057.5</t>
+  </si>
+  <si>
+    <t>$6,694.5</t>
+  </si>
+  <si>
+    <t>$6,690.0</t>
+  </si>
+  <si>
+    <t>$6,170.0</t>
   </si>
   <si>
     <t>$6,074.0</t>
   </si>
   <si>
-    <t>$82,105.0</t>
-  </si>
-  <si>
-    <t>$59,875.0</t>
-  </si>
-  <si>
-    <t>$47,965.0</t>
-  </si>
-  <si>
-    <t>$54,340.0</t>
-  </si>
-  <si>
-    <t>$420,454.0</t>
-  </si>
-  <si>
-    <t>$31,784.0</t>
-  </si>
-  <si>
-    <t>$33,092.5</t>
-  </si>
-  <si>
-    <t>$18,307.5</t>
-  </si>
-  <si>
-    <t>$3,535,420.0</t>
+    <t>$5,880.0</t>
+  </si>
+  <si>
+    <t>$5,465.0</t>
+  </si>
+  <si>
+    <t>$5,287.5</t>
+  </si>
+  <si>
+    <t>$4,550.0</t>
+  </si>
+  <si>
+    <t>$4,527.5</t>
+  </si>
+  <si>
+    <t>$4,230.0</t>
+  </si>
+  <si>
+    <t>$4,182.5</t>
+  </si>
+  <si>
+    <t>$3,965.0</t>
+  </si>
+  <si>
+    <t>$3,765.0</t>
+  </si>
+  <si>
+    <t>$3,355.0</t>
+  </si>
+  <si>
+    <t>$3,325.0</t>
+  </si>
+  <si>
+    <t>$2,960.0</t>
+  </si>
+  <si>
+    <t>$2,892.5</t>
+  </si>
+  <si>
+    <t>$2,690.0</t>
+  </si>
+  <si>
+    <t>$2,617.5</t>
+  </si>
+  <si>
+    <t>$2,487.5</t>
+  </si>
+  <si>
+    <t>$2,211.0</t>
+  </si>
+  <si>
+    <t>$1,827.5</t>
+  </si>
+  <si>
+    <t>$1,702.5</t>
+  </si>
+  <si>
+    <t>$1,691.0</t>
+  </si>
+  <si>
+    <t>$1,635.0</t>
+  </si>
+  <si>
+    <t>$1,605.0</t>
+  </si>
+  <si>
+    <t>$1,440.0</t>
   </si>
   <si>
     <t>$1,414.0</t>
   </si>
   <si>
-    <t>$4,182.5</t>
-  </si>
-  <si>
-    <t>$10,820.0</t>
-  </si>
-  <si>
-    <t>$5,960.0</t>
-  </si>
-  <si>
-    <t>$7,057.5</t>
-  </si>
-  <si>
-    <t>$44,380.0</t>
-  </si>
-  <si>
-    <t>$127,730.0</t>
-  </si>
-  <si>
-    <t>$31,846.5</t>
-  </si>
-  <si>
-    <t>$52,482.5</t>
-  </si>
-  <si>
-    <t>$138,417.5</t>
-  </si>
-  <si>
-    <t>$14,396,185.0</t>
-  </si>
-  <si>
-    <t>$7,740.0</t>
-  </si>
-  <si>
-    <t>$26,812.5</t>
-  </si>
-  <si>
-    <t>$19,985.0</t>
-  </si>
-  <si>
-    <t>$5,420.0</t>
-  </si>
-  <si>
-    <t>$186,600.0</t>
-  </si>
-  <si>
-    <t>$101,215.0</t>
-  </si>
-  <si>
-    <t>$21,235.5</t>
-  </si>
-  <si>
-    <t>$1,691.0</t>
-  </si>
-  <si>
-    <t>$157,677.0</t>
-  </si>
-  <si>
-    <t>$2,512.5</t>
-  </si>
-  <si>
-    <t>$115,172.5</t>
-  </si>
-  <si>
-    <t>$592.5</t>
-  </si>
-  <si>
-    <t>$23,337.5</t>
-  </si>
-  <si>
-    <t>$3,865.0</t>
-  </si>
-  <si>
-    <t>$1,280.0</t>
-  </si>
-  <si>
-    <t>$7,327.5</t>
+    <t>$1,250.0</t>
+  </si>
+  <si>
+    <t>$1,117.5</t>
+  </si>
+  <si>
+    <t>$1,115.0</t>
+  </si>
+  <si>
+    <t>$872.5</t>
+  </si>
+  <si>
+    <t>$830.0</t>
+  </si>
+  <si>
+    <t>$590.0</t>
+  </si>
+  <si>
+    <t>$560.0</t>
+  </si>
+  <si>
+    <t>$525.0</t>
+  </si>
+  <si>
+    <t>$495.0</t>
+  </si>
+  <si>
+    <t>$345.0</t>
+  </si>
+  <si>
+    <t>$337.5</t>
+  </si>
+  <si>
+    <t>$270.0</t>
+  </si>
+  <si>
+    <t>$180.0</t>
+  </si>
+  <si>
+    <t>$142.5</t>
+  </si>
+  <si>
+    <t>$127.5</t>
+  </si>
+  <si>
+    <t>$120.0</t>
   </si>
   <si>
     <t>$92.5</t>
   </si>
   <si>
-    <t>$780.0</t>
-  </si>
-  <si>
-    <t>$1,845.0</t>
-  </si>
-  <si>
-    <t>$330.0</t>
-  </si>
-  <si>
-    <t>$4,705.0</t>
-  </si>
-  <si>
-    <t>$33,982.5</t>
-  </si>
-  <si>
-    <t>$4,090.0</t>
-  </si>
-  <si>
-    <t>$101,025.0</t>
-  </si>
-  <si>
-    <t>$10.0</t>
-  </si>
-  <si>
-    <t>$3,075.0</t>
-  </si>
-  <si>
-    <t>$8,800.0</t>
-  </si>
-  <si>
-    <t>$5,910.0</t>
-  </si>
-  <si>
-    <t>$767.5</t>
-  </si>
-  <si>
-    <t>$40.0</t>
-  </si>
-  <si>
-    <t>$6,890.0</t>
-  </si>
-  <si>
-    <t>$1,440.0</t>
-  </si>
-  <si>
-    <t>$127.5</t>
-  </si>
-  <si>
-    <t>$590.0</t>
-  </si>
-  <si>
-    <t>$10,377.5</t>
-  </si>
-  <si>
-    <t>$69,995.0</t>
-  </si>
-  <si>
-    <t>$830.0</t>
+    <t>$80.0</t>
   </si>
   <si>
     <t>$20.0</t>
   </si>
   <si>
-    <t>$872.5</t>
-  </si>
-  <si>
-    <t>$345.0</t>
-  </si>
-  <si>
-    <t>$1,827.5</t>
-  </si>
-  <si>
-    <t>$120.0</t>
-  </si>
-  <si>
-    <t>$2,960.0</t>
-  </si>
-  <si>
-    <t>$3,965.0</t>
-  </si>
-  <si>
-    <t>$120,786.17000000003</t>
-  </si>
-  <si>
-    <t>$2,617.5</t>
-  </si>
-  <si>
     <t>$12.5</t>
   </si>
   <si>
-    <t>$337.5</t>
-  </si>
-  <si>
-    <t>$19,322.5</t>
-  </si>
-  <si>
     <t>$2.5</t>
-  </si>
-  <si>
-    <t>$32,698.0</t>
-  </si>
-  <si>
-    <t>$8,545.0</t>
-  </si>
-  <si>
-    <t>$142.5</t>
-  </si>
-  <si>
-    <t>$75.0</t>
-  </si>
-  <si>
-    <t>$3,765.0</t>
-  </si>
-  <si>
-    <t>$3,355.0</t>
-  </si>
-  <si>
-    <t>$3,114.0</t>
-  </si>
-  <si>
-    <t>$3,302.0</t>
-  </si>
-  <si>
-    <t>$39,360.0</t>
-  </si>
-  <si>
-    <t>$1,492.5</t>
-  </si>
-  <si>
-    <t>$15,087.5</t>
-  </si>
-  <si>
-    <t>$88,470.0</t>
-  </si>
-  <si>
-    <t>$7,350.0</t>
-  </si>
-  <si>
-    <t>$8,377.5</t>
-  </si>
-  <si>
-    <t>$2,670.0</t>
-  </si>
-  <si>
-    <t>$6,720.0</t>
-  </si>
-  <si>
-    <t>$1,250.0</t>
-  </si>
-  <si>
-    <t>$2,217.5</t>
-  </si>
-  <si>
-    <t>$5,197.5</t>
-  </si>
-  <si>
-    <t>$21,125.0</t>
-  </si>
-  <si>
-    <t>$5,465.0</t>
-  </si>
-  <si>
-    <t>$560.0</t>
-  </si>
-  <si>
-    <t>$180.0</t>
-  </si>
-  <si>
-    <t>$105,630.0</t>
-  </si>
-  <si>
-    <t>$4,230.0</t>
-  </si>
-  <si>
-    <t>$266,695.0</t>
-  </si>
-  <si>
-    <t>$27,065.0</t>
-  </si>
-  <si>
-    <t>$312.5</t>
-  </si>
-  <si>
-    <t>$15,197.5</t>
-  </si>
-  <si>
-    <t>$12,942.5</t>
-  </si>
-  <si>
-    <t>$3,542.5</t>
-  </si>
-  <si>
-    <t>$11,331.0</t>
-  </si>
-  <si>
-    <t>$40,435.0</t>
-  </si>
-  <si>
-    <t>$12,200.0</t>
-  </si>
-  <si>
-    <t>$214,242.5</t>
-  </si>
-  <si>
-    <t>$13,720.0</t>
-  </si>
-  <si>
-    <t>$3,012.5</t>
-  </si>
-  <si>
-    <t>$386,651.5</t>
-  </si>
-  <si>
-    <t>$99,833.5</t>
-  </si>
-  <si>
-    <t>$20,345.0</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1074,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1082,7 +1073,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1090,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1098,7 +1089,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1106,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1114,7 +1105,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1122,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1130,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1138,7 +1129,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1146,7 +1137,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1154,7 +1145,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1162,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1170,7 +1161,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1178,7 +1169,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1186,7 +1177,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1194,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1202,7 +1193,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1210,7 +1201,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1218,7 +1209,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1226,7 +1217,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1234,7 +1225,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1242,7 +1233,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1250,7 +1241,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1258,7 +1249,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1266,7 +1257,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1274,7 +1265,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1282,7 +1273,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1290,7 +1281,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1298,7 +1289,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1306,7 +1297,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1314,7 +1305,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1322,7 +1313,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1330,7 +1321,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1338,7 +1329,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1346,7 +1337,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1354,7 +1345,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1362,7 +1353,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1370,7 +1361,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1378,7 +1369,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1386,7 +1377,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1394,7 +1385,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1402,7 +1393,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1410,7 +1401,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1418,7 +1409,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1426,7 +1417,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1434,7 +1425,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1442,7 +1433,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1450,7 +1441,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1458,7 +1449,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1466,7 +1457,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1474,7 +1465,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1482,7 +1473,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1490,7 +1481,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1498,7 +1489,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1506,7 +1497,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1514,7 +1505,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1522,7 +1513,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1530,7 +1521,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1538,7 +1529,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1546,7 +1537,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1554,7 +1545,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1562,7 +1553,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1570,7 +1561,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1578,7 +1569,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1586,7 +1577,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1594,7 +1585,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1602,7 +1593,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1610,7 +1601,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1618,7 +1609,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1874,7 +1865,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1882,7 +1873,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1890,7 +1881,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1898,7 +1889,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1906,7 +1897,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1914,7 +1905,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1922,7 +1913,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1930,7 +1921,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1938,7 +1929,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1946,7 +1937,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1954,7 +1945,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1962,23 +1953,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/FinalOutput-By_Ticker.xlsx
+++ b/FinalOutput-By_Ticker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="308">
   <si>
     <t>dollarsTradedTodayApprox</t>
   </si>
@@ -22,673 +22,922 @@
     <t>Ticker</t>
   </si>
   <si>
-    <t>CMG</t>
-  </si>
-  <si>
-    <t>RNG</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>BHP</t>
-  </si>
-  <si>
-    <t>FUN</t>
-  </si>
-  <si>
-    <t>TMO</t>
-  </si>
-  <si>
-    <t>RVLV</t>
-  </si>
-  <si>
-    <t>ETN</t>
-  </si>
-  <si>
-    <t>BAX</t>
-  </si>
-  <si>
-    <t>SPT</t>
-  </si>
-  <si>
-    <t>HAS</t>
-  </si>
-  <si>
-    <t>NTES</t>
-  </si>
-  <si>
-    <t>CMA</t>
-  </si>
-  <si>
-    <t>TJX</t>
-  </si>
-  <si>
-    <t>CRNC</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>CEVA</t>
-  </si>
-  <si>
-    <t>SNA</t>
-  </si>
-  <si>
-    <t>SPB</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>LKQ</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>WELL</t>
-  </si>
-  <si>
-    <t>INFN</t>
-  </si>
-  <si>
-    <t>GSHD</t>
-  </si>
-  <si>
-    <t>ARMK</t>
-  </si>
-  <si>
-    <t>QELL</t>
-  </si>
-  <si>
-    <t>AXL</t>
-  </si>
-  <si>
-    <t>AOS</t>
-  </si>
-  <si>
-    <t>EVR</t>
-  </si>
-  <si>
-    <t>QGEN</t>
+    <t>WYNN</t>
+  </si>
+  <si>
+    <t>ULTA</t>
+  </si>
+  <si>
+    <t>ASO</t>
+  </si>
+  <si>
+    <t>ZBRA</t>
+  </si>
+  <si>
+    <t>CCJ</t>
+  </si>
+  <si>
+    <t>GMS</t>
+  </si>
+  <si>
+    <t>ACAD</t>
+  </si>
+  <si>
+    <t>NCLH</t>
+  </si>
+  <si>
+    <t>BMBL</t>
+  </si>
+  <si>
+    <t>ACMR</t>
+  </si>
+  <si>
+    <t>CHEF</t>
+  </si>
+  <si>
+    <t>XLRN</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>CARA</t>
+  </si>
+  <si>
+    <t>CTVA</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>WORK</t>
+  </si>
+  <si>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>CIEN</t>
+  </si>
+  <si>
+    <t>AVAV</t>
+  </si>
+  <si>
+    <t>DRI</t>
   </si>
   <si>
     <t>RAMP</t>
   </si>
   <si>
-    <t>CGRO</t>
-  </si>
-  <si>
-    <t>BECN</t>
-  </si>
-  <si>
-    <t>CRS</t>
-  </si>
-  <si>
-    <t>PEAK</t>
-  </si>
-  <si>
-    <t>RSG</t>
-  </si>
-  <si>
-    <t>BBD</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>TROW</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>AZEK</t>
-  </si>
-  <si>
-    <t>QRTEA</t>
-  </si>
-  <si>
-    <t>SWAV</t>
-  </si>
-  <si>
-    <t>GNTX</t>
-  </si>
-  <si>
-    <t>GPC</t>
-  </si>
-  <si>
-    <t>PAGS</t>
-  </si>
-  <si>
-    <t>CPA</t>
-  </si>
-  <si>
-    <t>YELP</t>
-  </si>
-  <si>
-    <t>ING</t>
-  </si>
-  <si>
-    <t>WY</t>
-  </si>
-  <si>
-    <t>ICAD</t>
-  </si>
-  <si>
-    <t>ELF</t>
-  </si>
-  <si>
-    <t>LBTYA</t>
-  </si>
-  <si>
-    <t>BHF</t>
+    <t>SYY</t>
+  </si>
+  <si>
+    <t>BLD</t>
+  </si>
+  <si>
+    <t>CNR</t>
+  </si>
+  <si>
+    <t>OLLI</t>
+  </si>
+  <si>
+    <t>NLOK</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>BCC</t>
+  </si>
+  <si>
+    <t>CEMI</t>
+  </si>
+  <si>
+    <t>BWXT</t>
+  </si>
+  <si>
+    <t>CCMP</t>
+  </si>
+  <si>
+    <t>JBLU</t>
+  </si>
+  <si>
+    <t>LBTYK</t>
+  </si>
+  <si>
+    <t>CVE</t>
+  </si>
+  <si>
+    <t>NNOX</t>
+  </si>
+  <si>
+    <t>HPE</t>
+  </si>
+  <si>
+    <t>YELL</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>CYTK</t>
+  </si>
+  <si>
+    <t>ATSG</t>
+  </si>
+  <si>
+    <t>BEPC</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>AAN</t>
+  </si>
+  <si>
+    <t>CNA</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>UNFI</t>
+  </si>
+  <si>
+    <t>INMD</t>
+  </si>
+  <si>
+    <t>UTZ</t>
+  </si>
+  <si>
+    <t>PPL</t>
+  </si>
+  <si>
+    <t>BCEL</t>
+  </si>
+  <si>
+    <t>MYOV</t>
+  </si>
+  <si>
+    <t>BCEI</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>JBL</t>
+  </si>
+  <si>
+    <t>CLPT</t>
+  </si>
+  <si>
+    <t>WMB</t>
+  </si>
+  <si>
+    <t>AQN</t>
+  </si>
+  <si>
+    <t>MTN</t>
+  </si>
+  <si>
+    <t>WTRG</t>
+  </si>
+  <si>
+    <t>ARDX</t>
+  </si>
+  <si>
+    <t>KKR</t>
+  </si>
+  <si>
+    <t>IBN</t>
+  </si>
+  <si>
+    <t>AQB</t>
+  </si>
+  <si>
+    <t>SONO</t>
+  </si>
+  <si>
+    <t>NEWR</t>
+  </si>
+  <si>
+    <t>BRKR</t>
+  </si>
+  <si>
+    <t>ITCI</t>
+  </si>
+  <si>
+    <t>CNST</t>
   </si>
   <si>
     <t>HTZGQ</t>
   </si>
   <si>
-    <t>BRX</t>
-  </si>
-  <si>
-    <t>PFSI</t>
-  </si>
-  <si>
-    <t>CNCE</t>
-  </si>
-  <si>
-    <t>SVMK</t>
-  </si>
-  <si>
-    <t>CATM</t>
-  </si>
-  <si>
-    <t>DGLY</t>
-  </si>
-  <si>
-    <t>SBRA</t>
-  </si>
-  <si>
-    <t>CBRE</t>
-  </si>
-  <si>
-    <t>AIMC</t>
-  </si>
-  <si>
-    <t>CNDT</t>
-  </si>
-  <si>
-    <t>SWX</t>
-  </si>
-  <si>
-    <t>TWNK</t>
-  </si>
-  <si>
-    <t>CPST</t>
-  </si>
-  <si>
-    <t>REPH</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>BNL</t>
-  </si>
-  <si>
-    <t>MTZ</t>
-  </si>
-  <si>
-    <t>PVG</t>
-  </si>
-  <si>
-    <t>PWR</t>
-  </si>
-  <si>
-    <t>FTS</t>
-  </si>
-  <si>
-    <t>MODN</t>
-  </si>
-  <si>
-    <t>ADAP</t>
-  </si>
-  <si>
-    <t>RLJ</t>
-  </si>
-  <si>
-    <t>ONEM</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>VNE</t>
-  </si>
-  <si>
-    <t>MEOH</t>
-  </si>
-  <si>
-    <t>GBDC</t>
-  </si>
-  <si>
-    <t>DHX</t>
-  </si>
-  <si>
-    <t>WRB</t>
-  </si>
-  <si>
-    <t>CAJ</t>
-  </si>
-  <si>
-    <t>KW</t>
-  </si>
-  <si>
-    <t>BHR</t>
-  </si>
-  <si>
-    <t>ZYME</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>JBGS</t>
-  </si>
-  <si>
-    <t>LZB</t>
-  </si>
-  <si>
-    <t>LSXMK</t>
-  </si>
-  <si>
-    <t>LBRDK</t>
-  </si>
-  <si>
-    <t>TDS</t>
-  </si>
-  <si>
-    <t>GTIM</t>
-  </si>
-  <si>
-    <t>WSR</t>
-  </si>
-  <si>
-    <t>NVT</t>
+    <t>SILV</t>
+  </si>
+  <si>
+    <t>CVA</t>
+  </si>
+  <si>
+    <t>RHP</t>
+  </si>
+  <si>
+    <t>NAV</t>
+  </si>
+  <si>
+    <t>JAZZ</t>
+  </si>
+  <si>
+    <t>WEC</t>
+  </si>
+  <si>
+    <t>EVRG</t>
+  </si>
+  <si>
+    <t>AERI</t>
+  </si>
+  <si>
+    <t>UGI</t>
+  </si>
+  <si>
+    <t>MDLA</t>
+  </si>
+  <si>
+    <t>CWK</t>
+  </si>
+  <si>
+    <t>IDCC</t>
+  </si>
+  <si>
+    <t>USAC</t>
+  </si>
+  <si>
+    <t>AGEN</t>
+  </si>
+  <si>
+    <t>ALGM</t>
+  </si>
+  <si>
+    <t>OSH</t>
+  </si>
+  <si>
+    <t>EPZM</t>
+  </si>
+  <si>
+    <t>TROX</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>DCI</t>
+  </si>
+  <si>
+    <t>GPMT</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>TMDX</t>
+  </si>
+  <si>
+    <t>GNL</t>
+  </si>
+  <si>
+    <t>QLYS</t>
+  </si>
+  <si>
+    <t>HAE</t>
+  </si>
+  <si>
+    <t>BKEP</t>
+  </si>
+  <si>
+    <t>CKPT</t>
+  </si>
+  <si>
+    <t>BRG</t>
+  </si>
+  <si>
+    <t>CNTY</t>
+  </si>
+  <si>
+    <t>SMSI</t>
+  </si>
+  <si>
+    <t>KIN</t>
+  </si>
+  <si>
+    <t>SMCI</t>
+  </si>
+  <si>
+    <t>ARAV</t>
+  </si>
+  <si>
+    <t>CCLP</t>
+  </si>
+  <si>
+    <t>LCI</t>
+  </si>
+  <si>
+    <t>PLX</t>
+  </si>
+  <si>
+    <t>RBA</t>
+  </si>
+  <si>
+    <t>RADA</t>
+  </si>
+  <si>
+    <t>IEP</t>
+  </si>
+  <si>
+    <t>GRBK</t>
+  </si>
+  <si>
+    <t>BRFS</t>
+  </si>
+  <si>
+    <t>VGR</t>
+  </si>
+  <si>
+    <t>KRMD</t>
+  </si>
+  <si>
+    <t>VOYA</t>
+  </si>
+  <si>
+    <t>WIFI</t>
+  </si>
+  <si>
+    <t>RCM</t>
+  </si>
+  <si>
+    <t>SUPN</t>
+  </si>
+  <si>
+    <t>QTRX</t>
+  </si>
+  <si>
+    <t>JELD</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>IPI</t>
+  </si>
+  <si>
+    <t>STIM</t>
+  </si>
+  <si>
+    <t>HALL</t>
+  </si>
+  <si>
+    <t>SMFG</t>
   </si>
   <si>
     <t>MD</t>
   </si>
   <si>
-    <t>OSPN</t>
-  </si>
-  <si>
-    <t>ELVT</t>
-  </si>
-  <si>
-    <t>THS</t>
-  </si>
-  <si>
-    <t>PNNT</t>
-  </si>
-  <si>
-    <t>LAND</t>
-  </si>
-  <si>
-    <t>MGP</t>
-  </si>
-  <si>
-    <t>LNTH</t>
-  </si>
-  <si>
-    <t>TRST</t>
-  </si>
-  <si>
-    <t>LXU</t>
-  </si>
-  <si>
-    <t>ORCC</t>
-  </si>
-  <si>
-    <t>PARR</t>
-  </si>
-  <si>
-    <t>$10,319,970.0</t>
-  </si>
-  <si>
-    <t>$1,482,012.5</t>
-  </si>
-  <si>
-    <t>$1,126,530.0</t>
-  </si>
-  <si>
-    <t>$614,252.5</t>
-  </si>
-  <si>
-    <t>$333,615.0</t>
-  </si>
-  <si>
-    <t>$266,695.0</t>
-  </si>
-  <si>
-    <t>$192,265.5</t>
-  </si>
-  <si>
-    <t>$168,172.5</t>
-  </si>
-  <si>
-    <t>$166,404.0</t>
-  </si>
-  <si>
-    <t>$159,580.0</t>
-  </si>
-  <si>
-    <t>$143,687.5</t>
-  </si>
-  <si>
-    <t>$120,786.17000000003</t>
-  </si>
-  <si>
-    <t>$113,227.5</t>
-  </si>
-  <si>
-    <t>$105,630.0</t>
-  </si>
-  <si>
-    <t>$99,065.0</t>
-  </si>
-  <si>
-    <t>$95,340.0</t>
-  </si>
-  <si>
-    <t>$80,340.0</t>
-  </si>
-  <si>
-    <t>$79,300.0</t>
-  </si>
-  <si>
-    <t>$77,895.0</t>
-  </si>
-  <si>
-    <t>$71,624.0</t>
-  </si>
-  <si>
-    <t>$69,995.0</t>
-  </si>
-  <si>
-    <t>$64,720.0</t>
-  </si>
-  <si>
-    <t>$48,657.5</t>
-  </si>
-  <si>
-    <t>$46,118.5</t>
-  </si>
-  <si>
-    <t>$46,115.0</t>
-  </si>
-  <si>
-    <t>$45,591.0</t>
-  </si>
-  <si>
-    <t>$44,147.5</t>
-  </si>
-  <si>
-    <t>$41,126.0</t>
-  </si>
-  <si>
-    <t>$40,030.0</t>
-  </si>
-  <si>
-    <t>$38,995.0</t>
-  </si>
-  <si>
-    <t>$37,121.0</t>
-  </si>
-  <si>
-    <t>$35,835.0</t>
-  </si>
-  <si>
-    <t>$35,327.5</t>
-  </si>
-  <si>
-    <t>$33,457.5</t>
-  </si>
-  <si>
-    <t>$33,290.0</t>
-  </si>
-  <si>
-    <t>$32,698.0</t>
-  </si>
-  <si>
-    <t>$31,860.0</t>
-  </si>
-  <si>
-    <t>$31,258.0</t>
-  </si>
-  <si>
-    <t>$30,070.0</t>
-  </si>
-  <si>
-    <t>$29,251.5</t>
-  </si>
-  <si>
-    <t>$27,065.0</t>
-  </si>
-  <si>
-    <t>$23,480.0</t>
-  </si>
-  <si>
-    <t>$22,130.0</t>
-  </si>
-  <si>
-    <t>$21,865.0</t>
-  </si>
-  <si>
-    <t>$21,125.0</t>
-  </si>
-  <si>
-    <t>$20,420.0</t>
-  </si>
-  <si>
-    <t>$19,347.5</t>
-  </si>
-  <si>
-    <t>$19,322.5</t>
-  </si>
-  <si>
-    <t>$19,205.0</t>
-  </si>
-  <si>
-    <t>$18,947.0</t>
-  </si>
-  <si>
-    <t>$18,127.0</t>
-  </si>
-  <si>
-    <t>$15,057.0</t>
-  </si>
-  <si>
-    <t>$11,945.0</t>
-  </si>
-  <si>
-    <t>$11,842.5</t>
-  </si>
-  <si>
-    <t>$10,377.5</t>
-  </si>
-  <si>
-    <t>$9,542.5</t>
-  </si>
-  <si>
-    <t>$9,348.0</t>
-  </si>
-  <si>
-    <t>$8,945.0</t>
-  </si>
-  <si>
-    <t>$8,545.0</t>
-  </si>
-  <si>
-    <t>$7,680.0</t>
-  </si>
-  <si>
-    <t>$7,085.0</t>
-  </si>
-  <si>
-    <t>$7,057.5</t>
-  </si>
-  <si>
-    <t>$6,694.5</t>
-  </si>
-  <si>
-    <t>$6,690.0</t>
-  </si>
-  <si>
-    <t>$6,170.0</t>
-  </si>
-  <si>
-    <t>$6,074.0</t>
-  </si>
-  <si>
-    <t>$5,880.0</t>
-  </si>
-  <si>
-    <t>$5,465.0</t>
-  </si>
-  <si>
-    <t>$5,287.5</t>
-  </si>
-  <si>
-    <t>$4,550.0</t>
-  </si>
-  <si>
-    <t>$4,527.5</t>
-  </si>
-  <si>
-    <t>$4,230.0</t>
-  </si>
-  <si>
-    <t>$4,182.5</t>
-  </si>
-  <si>
-    <t>$3,965.0</t>
-  </si>
-  <si>
-    <t>$3,765.0</t>
-  </si>
-  <si>
-    <t>$3,355.0</t>
-  </si>
-  <si>
-    <t>$3,325.0</t>
-  </si>
-  <si>
-    <t>$2,960.0</t>
-  </si>
-  <si>
-    <t>$2,892.5</t>
-  </si>
-  <si>
-    <t>$2,690.0</t>
-  </si>
-  <si>
-    <t>$2,617.5</t>
-  </si>
-  <si>
-    <t>$2,487.5</t>
-  </si>
-  <si>
-    <t>$2,211.0</t>
-  </si>
-  <si>
-    <t>$1,827.5</t>
-  </si>
-  <si>
-    <t>$1,702.5</t>
-  </si>
-  <si>
-    <t>$1,691.0</t>
-  </si>
-  <si>
-    <t>$1,635.0</t>
-  </si>
-  <si>
-    <t>$1,605.0</t>
-  </si>
-  <si>
-    <t>$1,440.0</t>
-  </si>
-  <si>
-    <t>$1,414.0</t>
-  </si>
-  <si>
-    <t>$1,250.0</t>
-  </si>
-  <si>
-    <t>$1,117.5</t>
-  </si>
-  <si>
-    <t>$1,115.0</t>
-  </si>
-  <si>
-    <t>$872.5</t>
-  </si>
-  <si>
-    <t>$830.0</t>
-  </si>
-  <si>
-    <t>$590.0</t>
-  </si>
-  <si>
-    <t>$560.0</t>
-  </si>
-  <si>
-    <t>$525.0</t>
-  </si>
-  <si>
-    <t>$495.0</t>
+    <t>APTX</t>
+  </si>
+  <si>
+    <t>REKR</t>
+  </si>
+  <si>
+    <t>MBI</t>
+  </si>
+  <si>
+    <t>CBLI</t>
+  </si>
+  <si>
+    <t>MATX</t>
+  </si>
+  <si>
+    <t>UUUU</t>
+  </si>
+  <si>
+    <t>UEC</t>
+  </si>
+  <si>
+    <t>LEAF</t>
+  </si>
+  <si>
+    <t>KYN</t>
+  </si>
+  <si>
+    <t>FNHC</t>
+  </si>
+  <si>
+    <t>EZPW</t>
+  </si>
+  <si>
+    <t>SBBP</t>
+  </si>
+  <si>
+    <t>EVC</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>MTEM</t>
+  </si>
+  <si>
+    <t>MDRX</t>
+  </si>
+  <si>
+    <t>ZNTL</t>
+  </si>
+  <si>
+    <t>LAUR</t>
+  </si>
+  <si>
+    <t>PRTK</t>
+  </si>
+  <si>
+    <t>TSLX</t>
+  </si>
+  <si>
+    <t>EXTN</t>
+  </si>
+  <si>
+    <t>SIBN</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>LQDT</t>
+  </si>
+  <si>
+    <t>VOLT</t>
+  </si>
+  <si>
+    <t>IMH</t>
+  </si>
+  <si>
+    <t>GROW</t>
+  </si>
+  <si>
+    <t>USAT</t>
+  </si>
+  <si>
+    <t>$1,509,539.0</t>
+  </si>
+  <si>
+    <t>$620,330.0</t>
+  </si>
+  <si>
+    <t>$345,597.5</t>
+  </si>
+  <si>
+    <t>$323,065.0</t>
+  </si>
+  <si>
+    <t>$294,488.0</t>
+  </si>
+  <si>
+    <t>$174,430.0</t>
+  </si>
+  <si>
+    <t>$152,709.0</t>
+  </si>
+  <si>
+    <t>$133,725.0</t>
+  </si>
+  <si>
+    <t>$117,250.0</t>
+  </si>
+  <si>
+    <t>$116,025.0</t>
+  </si>
+  <si>
+    <t>$107,145.0</t>
+  </si>
+  <si>
+    <t>$96,365.0</t>
+  </si>
+  <si>
+    <t>$91,280.0</t>
+  </si>
+  <si>
+    <t>$89,487.5</t>
+  </si>
+  <si>
+    <t>$87,830.0</t>
+  </si>
+  <si>
+    <t>$83,580.0</t>
+  </si>
+  <si>
+    <t>$80,266.0</t>
+  </si>
+  <si>
+    <t>$77,682.5</t>
+  </si>
+  <si>
+    <t>$77,624.0</t>
+  </si>
+  <si>
+    <t>$71,180.0</t>
+  </si>
+  <si>
+    <t>$46,538.0</t>
+  </si>
+  <si>
+    <t>$39,360.0</t>
+  </si>
+  <si>
+    <t>$37,065.0</t>
+  </si>
+  <si>
+    <t>$33,760.0</t>
+  </si>
+  <si>
+    <t>$33,090.0</t>
+  </si>
+  <si>
+    <t>$31,017.5</t>
+  </si>
+  <si>
+    <t>$29,713.0</t>
+  </si>
+  <si>
+    <t>$27,560.0</t>
+  </si>
+  <si>
+    <t>$26,498.800000000003</t>
+  </si>
+  <si>
+    <t>$25,815.0</t>
+  </si>
+  <si>
+    <t>$23,565.0</t>
+  </si>
+  <si>
+    <t>$22,470.0</t>
+  </si>
+  <si>
+    <t>$21,371.0</t>
+  </si>
+  <si>
+    <t>$19,670.0</t>
+  </si>
+  <si>
+    <t>$19,617.0</t>
+  </si>
+  <si>
+    <t>$17,850.0</t>
+  </si>
+  <si>
+    <t>$15,010.0</t>
+  </si>
+  <si>
+    <t>$14,552.5</t>
+  </si>
+  <si>
+    <t>$14,331.5</t>
+  </si>
+  <si>
+    <t>$13,649.0</t>
+  </si>
+  <si>
+    <t>$13,387.5</t>
+  </si>
+  <si>
+    <t>$13,315.0</t>
+  </si>
+  <si>
+    <t>$12,792.5</t>
+  </si>
+  <si>
+    <t>$12,627.5</t>
+  </si>
+  <si>
+    <t>$12,426.0</t>
+  </si>
+  <si>
+    <t>$12,275.5</t>
+  </si>
+  <si>
+    <t>$10,892.5</t>
+  </si>
+  <si>
+    <t>$10,690.0</t>
+  </si>
+  <si>
+    <t>$10,515.0</t>
+  </si>
+  <si>
+    <t>$10,194.0</t>
+  </si>
+  <si>
+    <t>$9,385.0</t>
+  </si>
+  <si>
+    <t>$9,022.5</t>
+  </si>
+  <si>
+    <t>$8,685.0</t>
+  </si>
+  <si>
+    <t>$8,290.0</t>
+  </si>
+  <si>
+    <t>$8,170.0</t>
+  </si>
+  <si>
+    <t>$7,937.0</t>
+  </si>
+  <si>
+    <t>$7,930.0</t>
+  </si>
+  <si>
+    <t>$7,783.0</t>
+  </si>
+  <si>
+    <t>$7,747.5</t>
+  </si>
+  <si>
+    <t>$7,470.0</t>
+  </si>
+  <si>
+    <t>$6,665.0</t>
+  </si>
+  <si>
+    <t>$6,427.5</t>
+  </si>
+  <si>
+    <t>$6,203.0</t>
+  </si>
+  <si>
+    <t>$5,472.0</t>
+  </si>
+  <si>
+    <t>$5,270.0</t>
+  </si>
+  <si>
+    <t>$5,147.5</t>
+  </si>
+  <si>
+    <t>$5,105.0</t>
+  </si>
+  <si>
+    <t>$4,755.0</t>
+  </si>
+  <si>
+    <t>$4,643.0</t>
+  </si>
+  <si>
+    <t>$4,605.0</t>
+  </si>
+  <si>
+    <t>$4,090.0</t>
+  </si>
+  <si>
+    <t>$3,835.0</t>
+  </si>
+  <si>
+    <t>$3,827.5</t>
+  </si>
+  <si>
+    <t>$3,740.0</t>
+  </si>
+  <si>
+    <t>$3,699.0</t>
+  </si>
+  <si>
+    <t>$3,465.0</t>
+  </si>
+  <si>
+    <t>$3,340.0</t>
+  </si>
+  <si>
+    <t>$3,285.0</t>
+  </si>
+  <si>
+    <t>$3,182.5</t>
+  </si>
+  <si>
+    <t>$2,765.0</t>
+  </si>
+  <si>
+    <t>$2,665.0</t>
+  </si>
+  <si>
+    <t>$2,307.5</t>
+  </si>
+  <si>
+    <t>$2,190.0</t>
+  </si>
+  <si>
+    <t>$2,165.0</t>
+  </si>
+  <si>
+    <t>$2,136.0</t>
+  </si>
+  <si>
+    <t>$2,127.5</t>
+  </si>
+  <si>
+    <t>$1,965.0</t>
+  </si>
+  <si>
+    <t>$1,952.5</t>
+  </si>
+  <si>
+    <t>$1,720.0</t>
+  </si>
+  <si>
+    <t>$1,695.0</t>
+  </si>
+  <si>
+    <t>$1,670.0</t>
+  </si>
+  <si>
+    <t>$1,552.5</t>
+  </si>
+  <si>
+    <t>$1,425.0</t>
+  </si>
+  <si>
+    <t>$1,397.5</t>
+  </si>
+  <si>
+    <t>$1,385.0</t>
+  </si>
+  <si>
+    <t>$1,335.0</t>
+  </si>
+  <si>
+    <t>$1,325.0</t>
+  </si>
+  <si>
+    <t>$1,260.0</t>
+  </si>
+  <si>
+    <t>$1,212.5</t>
+  </si>
+  <si>
+    <t>$1,060.0</t>
+  </si>
+  <si>
+    <t>$995.0</t>
+  </si>
+  <si>
+    <t>$984.0</t>
+  </si>
+  <si>
+    <t>$867.5</t>
+  </si>
+  <si>
+    <t>$855.0</t>
+  </si>
+  <si>
+    <t>$817.5</t>
+  </si>
+  <si>
+    <t>$815.0</t>
+  </si>
+  <si>
+    <t>$789.0</t>
+  </si>
+  <si>
+    <t>$782.0</t>
+  </si>
+  <si>
+    <t>$725.0</t>
+  </si>
+  <si>
+    <t>$655.0</t>
+  </si>
+  <si>
+    <t>$650.0</t>
+  </si>
+  <si>
+    <t>$622.5</t>
+  </si>
+  <si>
+    <t>$615.0</t>
+  </si>
+  <si>
+    <t>$585.0</t>
+  </si>
+  <si>
+    <t>$550.0</t>
+  </si>
+  <si>
+    <t>$492.0</t>
+  </si>
+  <si>
+    <t>$487.5</t>
+  </si>
+  <si>
+    <t>$486.0</t>
+  </si>
+  <si>
+    <t>$480.0</t>
+  </si>
+  <si>
+    <t>$475.0</t>
+  </si>
+  <si>
+    <t>$453.0</t>
+  </si>
+  <si>
+    <t>$421.0</t>
+  </si>
+  <si>
+    <t>$400.0</t>
+  </si>
+  <si>
+    <t>$390.0</t>
+  </si>
+  <si>
+    <t>$387.5</t>
   </si>
   <si>
     <t>$345.0</t>
   </si>
   <si>
-    <t>$337.5</t>
-  </si>
-  <si>
-    <t>$270.0</t>
-  </si>
-  <si>
-    <t>$180.0</t>
-  </si>
-  <si>
-    <t>$142.5</t>
-  </si>
-  <si>
-    <t>$127.5</t>
+    <t>$342.5</t>
+  </si>
+  <si>
+    <t>$317.5</t>
+  </si>
+  <si>
+    <t>$292.0</t>
+  </si>
+  <si>
+    <t>$257.5</t>
+  </si>
+  <si>
+    <t>$170.0</t>
+  </si>
+  <si>
+    <t>$152.0</t>
+  </si>
+  <si>
+    <t>$151.0</t>
+  </si>
+  <si>
+    <t>$144.0</t>
+  </si>
+  <si>
+    <t>$132.5</t>
+  </si>
+  <si>
+    <t>$130.0</t>
   </si>
   <si>
     <t>$120.0</t>
   </si>
   <si>
-    <t>$92.5</t>
-  </si>
-  <si>
-    <t>$80.0</t>
+    <t>$115.0</t>
+  </si>
+  <si>
+    <t>$112.5</t>
+  </si>
+  <si>
+    <t>$102.0</t>
+  </si>
+  <si>
+    <t>$50.0</t>
+  </si>
+  <si>
+    <t>$46.0</t>
+  </si>
+  <si>
+    <t>$40.0</t>
+  </si>
+  <si>
+    <t>$37.5</t>
+  </si>
+  <si>
+    <t>$35.0</t>
+  </si>
+  <si>
+    <t>$25.0</t>
   </si>
   <si>
     <t>$20.0</t>
   </si>
   <si>
+    <t>$17.5</t>
+  </si>
+  <si>
     <t>$12.5</t>
   </si>
   <si>
-    <t>$2.5</t>
+    <t>$10.0</t>
+  </si>
+  <si>
+    <t>$5.0</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1065,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1073,7 +1322,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1081,7 +1330,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1089,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1097,7 +1346,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1105,7 +1354,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1113,7 +1362,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1121,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1129,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1137,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1145,7 +1394,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1153,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1161,7 +1410,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1169,7 +1418,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1177,7 +1426,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1185,7 +1434,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1193,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1201,7 +1450,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1209,7 +1458,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1217,7 +1466,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1225,7 +1474,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1233,7 +1482,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1241,7 +1490,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1249,7 +1498,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1257,7 +1506,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1265,7 +1514,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1273,7 +1522,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1281,7 +1530,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1289,7 +1538,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1297,7 +1546,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1305,7 +1554,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1313,7 +1562,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1321,7 +1570,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1329,7 +1578,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1337,7 +1586,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1345,7 +1594,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1353,7 +1602,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1361,7 +1610,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1369,7 +1618,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1377,7 +1626,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1385,7 +1634,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1393,7 +1642,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1401,7 +1650,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1409,7 +1658,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1417,7 +1666,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1425,7 +1674,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1433,7 +1682,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1441,7 +1690,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1449,7 +1698,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1457,7 +1706,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1465,7 +1714,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1473,7 +1722,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1481,7 +1730,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1489,7 +1738,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1497,7 +1746,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1505,7 +1754,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1513,7 +1762,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1521,7 +1770,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1529,7 +1778,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1537,7 +1786,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1545,7 +1794,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1553,7 +1802,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1561,7 +1810,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1569,7 +1818,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1577,7 +1826,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1585,7 +1834,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1593,7 +1842,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1601,7 +1850,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1609,7 +1858,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1617,7 +1866,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1625,7 +1874,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1633,7 +1882,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1641,7 +1890,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1649,7 +1898,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1657,7 +1906,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1665,7 +1914,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1673,7 +1922,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1681,7 +1930,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1689,7 +1938,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1697,7 +1946,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1705,7 +1954,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1713,7 +1962,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1721,7 +1970,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1729,7 +1978,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1737,7 +1986,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1745,7 +1994,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1753,7 +2002,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1761,7 +2010,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1769,7 +2018,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1777,7 +2026,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1785,7 +2034,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1793,7 +2042,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1801,7 +2050,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1809,7 +2058,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1817,7 +2066,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1825,7 +2074,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1833,7 +2082,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1841,7 +2090,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1849,7 +2098,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1857,7 +2106,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1865,7 +2114,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1873,7 +2122,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1881,7 +2130,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1889,7 +2138,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1897,7 +2146,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1905,7 +2154,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1913,7 +2162,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1921,7 +2170,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1929,7 +2178,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1937,7 +2186,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1945,7 +2194,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1953,7 +2202,351 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>224</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/FinalOutput-By_Ticker.xlsx
+++ b/FinalOutput-By_Ticker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="298">
   <si>
     <t>dollarsTradedTodayApprox</t>
   </si>
@@ -34,438 +34,426 @@
     <t>ZBRA</t>
   </si>
   <si>
+    <t>GMS</t>
+  </si>
+  <si>
+    <t>ACAD</t>
+  </si>
+  <si>
+    <t>NCLH</t>
+  </si>
+  <si>
+    <t>BMBL</t>
+  </si>
+  <si>
+    <t>ACMR</t>
+  </si>
+  <si>
+    <t>XLRN</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>AVAV</t>
+  </si>
+  <si>
+    <t>WORK</t>
+  </si>
+  <si>
+    <t>DRI</t>
+  </si>
+  <si>
     <t>CCJ</t>
   </si>
   <si>
-    <t>GMS</t>
-  </si>
-  <si>
-    <t>ACAD</t>
-  </si>
-  <si>
-    <t>NCLH</t>
-  </si>
-  <si>
-    <t>BMBL</t>
-  </si>
-  <si>
-    <t>ACMR</t>
+    <t>RAMP</t>
+  </si>
+  <si>
+    <t>SYY</t>
+  </si>
+  <si>
+    <t>BLD</t>
+  </si>
+  <si>
+    <t>OLLI</t>
+  </si>
+  <si>
+    <t>NLOK</t>
+  </si>
+  <si>
+    <t>BCC</t>
+  </si>
+  <si>
+    <t>BWXT</t>
+  </si>
+  <si>
+    <t>JBLU</t>
+  </si>
+  <si>
+    <t>CIEN</t>
+  </si>
+  <si>
+    <t>LBTYK</t>
+  </si>
+  <si>
+    <t>NNOX</t>
+  </si>
+  <si>
+    <t>HPE</t>
+  </si>
+  <si>
+    <t>YELL</t>
+  </si>
+  <si>
+    <t>CTVA</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>ATSG</t>
+  </si>
+  <si>
+    <t>CYTK</t>
+  </si>
+  <si>
+    <t>BEPC</t>
+  </si>
+  <si>
+    <t>CCMP</t>
+  </si>
+  <si>
+    <t>AAN</t>
+  </si>
+  <si>
+    <t>BRKR</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>UNFI</t>
+  </si>
+  <si>
+    <t>INMD</t>
+  </si>
+  <si>
+    <t>UTZ</t>
+  </si>
+  <si>
+    <t>PPL</t>
+  </si>
+  <si>
+    <t>MYOV</t>
+  </si>
+  <si>
+    <t>BCEL</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>JBL</t>
+  </si>
+  <si>
+    <t>WMB</t>
+  </si>
+  <si>
+    <t>AQN</t>
+  </si>
+  <si>
+    <t>MTN</t>
+  </si>
+  <si>
+    <t>BCEI</t>
+  </si>
+  <si>
+    <t>WTRG</t>
+  </si>
+  <si>
+    <t>ARDX</t>
   </si>
   <si>
     <t>CHEF</t>
   </si>
   <si>
-    <t>XLRN</t>
-  </si>
-  <si>
-    <t>AMP</t>
+    <t>AQB</t>
+  </si>
+  <si>
+    <t>KKR</t>
+  </si>
+  <si>
+    <t>IBN</t>
+  </si>
+  <si>
+    <t>SONO</t>
+  </si>
+  <si>
+    <t>NEWR</t>
+  </si>
+  <si>
+    <t>ITCI</t>
+  </si>
+  <si>
+    <t>HTZGQ</t>
+  </si>
+  <si>
+    <t>SILV</t>
+  </si>
+  <si>
+    <t>RHP</t>
+  </si>
+  <si>
+    <t>NAV</t>
+  </si>
+  <si>
+    <t>JAZZ</t>
+  </si>
+  <si>
+    <t>WEC</t>
+  </si>
+  <si>
+    <t>EVRG</t>
+  </si>
+  <si>
+    <t>AERI</t>
+  </si>
+  <si>
+    <t>UGI</t>
+  </si>
+  <si>
+    <t>MDLA</t>
+  </si>
+  <si>
+    <t>CVE</t>
+  </si>
+  <si>
+    <t>AGEN</t>
+  </si>
+  <si>
+    <t>IDCC</t>
+  </si>
+  <si>
+    <t>USAC</t>
+  </si>
+  <si>
+    <t>ALGM</t>
+  </si>
+  <si>
+    <t>OSH</t>
+  </si>
+  <si>
+    <t>EPZM</t>
+  </si>
+  <si>
+    <t>TROX</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>DCI</t>
+  </si>
+  <si>
+    <t>GPMT</t>
+  </si>
+  <si>
+    <t>BKEP</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>TMDX</t>
+  </si>
+  <si>
+    <t>GNL</t>
   </si>
   <si>
     <t>CARA</t>
   </si>
   <si>
-    <t>CTVA</t>
-  </si>
-  <si>
-    <t>DELL</t>
-  </si>
-  <si>
-    <t>WORK</t>
-  </si>
-  <si>
-    <t>OXY</t>
-  </si>
-  <si>
-    <t>CIEN</t>
-  </si>
-  <si>
-    <t>AVAV</t>
-  </si>
-  <si>
-    <t>DRI</t>
-  </si>
-  <si>
-    <t>RAMP</t>
-  </si>
-  <si>
-    <t>SYY</t>
-  </si>
-  <si>
-    <t>BLD</t>
+    <t>QLYS</t>
+  </si>
+  <si>
+    <t>HAE</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>BRG</t>
+  </si>
+  <si>
+    <t>SMSI</t>
+  </si>
+  <si>
+    <t>KIN</t>
+  </si>
+  <si>
+    <t>SMCI</t>
+  </si>
+  <si>
+    <t>ARAV</t>
+  </si>
+  <si>
+    <t>LCI</t>
+  </si>
+  <si>
+    <t>PLX</t>
+  </si>
+  <si>
+    <t>RBA</t>
+  </si>
+  <si>
+    <t>RADA</t>
+  </si>
+  <si>
+    <t>IEP</t>
+  </si>
+  <si>
+    <t>GRBK</t>
+  </si>
+  <si>
+    <t>BRFS</t>
+  </si>
+  <si>
+    <t>VGR</t>
+  </si>
+  <si>
+    <t>KRMD</t>
+  </si>
+  <si>
+    <t>VOYA</t>
+  </si>
+  <si>
+    <t>CEMI</t>
+  </si>
+  <si>
+    <t>WIFI</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>RCM</t>
+  </si>
+  <si>
+    <t>SUPN</t>
+  </si>
+  <si>
+    <t>QTRX</t>
+  </si>
+  <si>
+    <t>JELD</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>IPI</t>
+  </si>
+  <si>
+    <t>STIM</t>
+  </si>
+  <si>
+    <t>CVA</t>
+  </si>
+  <si>
+    <t>HALL</t>
+  </si>
+  <si>
+    <t>SMFG</t>
+  </si>
+  <si>
+    <t>APTX</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>REKR</t>
+  </si>
+  <si>
+    <t>CWK</t>
   </si>
   <si>
     <t>CNR</t>
   </si>
   <si>
-    <t>OLLI</t>
-  </si>
-  <si>
-    <t>NLOK</t>
-  </si>
-  <si>
-    <t>CRI</t>
-  </si>
-  <si>
-    <t>BCC</t>
-  </si>
-  <si>
-    <t>CEMI</t>
-  </si>
-  <si>
-    <t>BWXT</t>
-  </si>
-  <si>
-    <t>CCMP</t>
-  </si>
-  <si>
-    <t>JBLU</t>
-  </si>
-  <si>
-    <t>LBTYK</t>
-  </si>
-  <si>
-    <t>CVE</t>
-  </si>
-  <si>
-    <t>NNOX</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>YELL</t>
-  </si>
-  <si>
-    <t>PLAN</t>
-  </si>
-  <si>
-    <t>CYTK</t>
-  </si>
-  <si>
-    <t>ATSG</t>
-  </si>
-  <si>
-    <t>BEPC</t>
-  </si>
-  <si>
-    <t>CAL</t>
-  </si>
-  <si>
-    <t>AAN</t>
+    <t>MBI</t>
+  </si>
+  <si>
+    <t>MATX</t>
+  </si>
+  <si>
+    <t>UUUU</t>
+  </si>
+  <si>
+    <t>UEC</t>
+  </si>
+  <si>
+    <t>LEAF</t>
+  </si>
+  <si>
+    <t>KYN</t>
+  </si>
+  <si>
+    <t>CNTY</t>
+  </si>
+  <si>
+    <t>FNHC</t>
+  </si>
+  <si>
+    <t>EZPW</t>
+  </si>
+  <si>
+    <t>SBBP</t>
+  </si>
+  <si>
+    <t>EVC</t>
+  </si>
+  <si>
+    <t>ETH</t>
   </si>
   <si>
     <t>CNA</t>
   </si>
   <si>
-    <t>ADT</t>
-  </si>
-  <si>
-    <t>UNFI</t>
-  </si>
-  <si>
-    <t>INMD</t>
-  </si>
-  <si>
-    <t>UTZ</t>
-  </si>
-  <si>
-    <t>PPL</t>
-  </si>
-  <si>
-    <t>BCEL</t>
-  </si>
-  <si>
-    <t>MYOV</t>
-  </si>
-  <si>
-    <t>BCEI</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>JBL</t>
-  </si>
-  <si>
-    <t>CLPT</t>
-  </si>
-  <si>
-    <t>WMB</t>
-  </si>
-  <si>
-    <t>AQN</t>
-  </si>
-  <si>
-    <t>MTN</t>
-  </si>
-  <si>
-    <t>WTRG</t>
-  </si>
-  <si>
-    <t>ARDX</t>
-  </si>
-  <si>
-    <t>KKR</t>
-  </si>
-  <si>
-    <t>IBN</t>
-  </si>
-  <si>
-    <t>AQB</t>
-  </si>
-  <si>
-    <t>SONO</t>
-  </si>
-  <si>
-    <t>NEWR</t>
-  </si>
-  <si>
-    <t>BRKR</t>
-  </si>
-  <si>
-    <t>ITCI</t>
-  </si>
-  <si>
-    <t>CNST</t>
-  </si>
-  <si>
-    <t>HTZGQ</t>
-  </si>
-  <si>
-    <t>SILV</t>
-  </si>
-  <si>
-    <t>CVA</t>
-  </si>
-  <si>
-    <t>RHP</t>
-  </si>
-  <si>
-    <t>NAV</t>
-  </si>
-  <si>
-    <t>JAZZ</t>
-  </si>
-  <si>
-    <t>WEC</t>
-  </si>
-  <si>
-    <t>EVRG</t>
-  </si>
-  <si>
-    <t>AERI</t>
-  </si>
-  <si>
-    <t>UGI</t>
-  </si>
-  <si>
-    <t>MDLA</t>
-  </si>
-  <si>
-    <t>CWK</t>
-  </si>
-  <si>
-    <t>IDCC</t>
-  </si>
-  <si>
-    <t>USAC</t>
-  </si>
-  <si>
-    <t>AGEN</t>
-  </si>
-  <si>
-    <t>ALGM</t>
-  </si>
-  <si>
-    <t>OSH</t>
-  </si>
-  <si>
-    <t>EPZM</t>
-  </si>
-  <si>
-    <t>TROX</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>DCI</t>
-  </si>
-  <si>
-    <t>GPMT</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>TMDX</t>
-  </si>
-  <si>
-    <t>GNL</t>
-  </si>
-  <si>
-    <t>QLYS</t>
-  </si>
-  <si>
-    <t>HAE</t>
-  </si>
-  <si>
-    <t>BKEP</t>
-  </si>
-  <si>
-    <t>CKPT</t>
-  </si>
-  <si>
-    <t>BRG</t>
-  </si>
-  <si>
-    <t>CNTY</t>
-  </si>
-  <si>
-    <t>SMSI</t>
-  </si>
-  <si>
-    <t>KIN</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>ARAV</t>
+    <t>MTEM</t>
+  </si>
+  <si>
+    <t>MDRX</t>
+  </si>
+  <si>
+    <t>ZNTL</t>
+  </si>
+  <si>
+    <t>LAUR</t>
+  </si>
+  <si>
+    <t>PRTK</t>
+  </si>
+  <si>
+    <t>EXTN</t>
+  </si>
+  <si>
+    <t>TSLX</t>
   </si>
   <si>
     <t>CCLP</t>
   </si>
   <si>
-    <t>LCI</t>
-  </si>
-  <si>
-    <t>PLX</t>
-  </si>
-  <si>
-    <t>RBA</t>
-  </si>
-  <si>
-    <t>RADA</t>
-  </si>
-  <si>
-    <t>IEP</t>
-  </si>
-  <si>
-    <t>GRBK</t>
-  </si>
-  <si>
-    <t>BRFS</t>
-  </si>
-  <si>
-    <t>VGR</t>
-  </si>
-  <si>
-    <t>KRMD</t>
-  </si>
-  <si>
-    <t>VOYA</t>
-  </si>
-  <si>
-    <t>WIFI</t>
-  </si>
-  <si>
-    <t>RCM</t>
-  </si>
-  <si>
-    <t>SUPN</t>
-  </si>
-  <si>
-    <t>QTRX</t>
-  </si>
-  <si>
-    <t>JELD</t>
-  </si>
-  <si>
-    <t>SID</t>
-  </si>
-  <si>
-    <t>IPI</t>
-  </si>
-  <si>
-    <t>STIM</t>
-  </si>
-  <si>
-    <t>HALL</t>
-  </si>
-  <si>
-    <t>SMFG</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>APTX</t>
-  </si>
-  <si>
-    <t>REKR</t>
-  </si>
-  <si>
-    <t>MBI</t>
-  </si>
-  <si>
-    <t>CBLI</t>
-  </si>
-  <si>
-    <t>MATX</t>
-  </si>
-  <si>
-    <t>UUUU</t>
-  </si>
-  <si>
-    <t>UEC</t>
-  </si>
-  <si>
-    <t>LEAF</t>
-  </si>
-  <si>
-    <t>KYN</t>
-  </si>
-  <si>
-    <t>FNHC</t>
-  </si>
-  <si>
-    <t>EZPW</t>
-  </si>
-  <si>
-    <t>SBBP</t>
-  </si>
-  <si>
-    <t>EVC</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>MTEM</t>
-  </si>
-  <si>
-    <t>MDRX</t>
-  </si>
-  <si>
-    <t>ZNTL</t>
-  </si>
-  <si>
-    <t>LAUR</t>
-  </si>
-  <si>
-    <t>PRTK</t>
-  </si>
-  <si>
-    <t>TSLX</t>
-  </si>
-  <si>
-    <t>EXTN</t>
-  </si>
-  <si>
     <t>SIBN</t>
   </si>
   <si>
@@ -487,69 +475,57 @@
     <t>USAT</t>
   </si>
   <si>
-    <t>$1,509,539.0</t>
+    <t>$1,578,202.5</t>
   </si>
   <si>
     <t>$620,330.0</t>
   </si>
   <si>
-    <t>$345,597.5</t>
-  </si>
-  <si>
-    <t>$323,065.0</t>
-  </si>
-  <si>
-    <t>$294,488.0</t>
+    <t>$402,300.0</t>
+  </si>
+  <si>
+    <t>$256,175.0</t>
   </si>
   <si>
     <t>$174,430.0</t>
   </si>
   <si>
-    <t>$152,709.0</t>
+    <t>$137,470.5</t>
   </si>
   <si>
     <t>$133,725.0</t>
   </si>
   <si>
-    <t>$117,250.0</t>
-  </si>
-  <si>
-    <t>$116,025.0</t>
-  </si>
-  <si>
-    <t>$107,145.0</t>
-  </si>
-  <si>
-    <t>$96,365.0</t>
-  </si>
-  <si>
-    <t>$91,280.0</t>
-  </si>
-  <si>
-    <t>$89,487.5</t>
-  </si>
-  <si>
-    <t>$87,830.0</t>
+    <t>$120,690.0</t>
+  </si>
+  <si>
+    <t>$115,935.0</t>
+  </si>
+  <si>
+    <t>$99,120.0</t>
   </si>
   <si>
     <t>$83,580.0</t>
   </si>
   <si>
-    <t>$80,266.0</t>
+    <t>$81,440.0</t>
   </si>
   <si>
     <t>$77,682.5</t>
   </si>
   <si>
-    <t>$77,624.0</t>
-  </si>
-  <si>
-    <t>$71,180.0</t>
+    <t>$72,705.0</t>
+  </si>
+  <si>
+    <t>$68,264.0</t>
   </si>
   <si>
     <t>$46,538.0</t>
   </si>
   <si>
+    <t>$44,763.0</t>
+  </si>
+  <si>
     <t>$39,360.0</t>
   </si>
   <si>
@@ -559,70 +535,61 @@
     <t>$33,760.0</t>
   </si>
   <si>
-    <t>$33,090.0</t>
-  </si>
-  <si>
     <t>$31,017.5</t>
   </si>
   <si>
     <t>$29,713.0</t>
   </si>
   <si>
-    <t>$27,560.0</t>
-  </si>
-  <si>
-    <t>$26,498.800000000003</t>
-  </si>
-  <si>
-    <t>$25,815.0</t>
-  </si>
-  <si>
-    <t>$23,565.0</t>
-  </si>
-  <si>
-    <t>$22,470.0</t>
+    <t>$26,694.7</t>
+  </si>
+  <si>
+    <t>$23,355.0</t>
   </si>
   <si>
     <t>$21,371.0</t>
   </si>
   <si>
+    <t>$20,071.0</t>
+  </si>
+  <si>
     <t>$19,670.0</t>
   </si>
   <si>
-    <t>$19,617.0</t>
-  </si>
-  <si>
     <t>$17,850.0</t>
   </si>
   <si>
     <t>$15,010.0</t>
   </si>
   <si>
-    <t>$14,552.5</t>
+    <t>$14,999.5</t>
+  </si>
+  <si>
+    <t>$14,569.0</t>
   </si>
   <si>
     <t>$14,331.5</t>
   </si>
   <si>
+    <t>$13,687.5</t>
+  </si>
+  <si>
     <t>$13,649.0</t>
   </si>
   <si>
-    <t>$13,387.5</t>
-  </si>
-  <si>
-    <t>$13,315.0</t>
-  </si>
-  <si>
-    <t>$12,792.5</t>
-  </si>
-  <si>
-    <t>$12,627.5</t>
-  </si>
-  <si>
-    <t>$12,426.0</t>
-  </si>
-  <si>
-    <t>$12,275.5</t>
+    <t>$13,225.0</t>
+  </si>
+  <si>
+    <t>$12,895.0</t>
+  </si>
+  <si>
+    <t>$12,652.5</t>
+  </si>
+  <si>
+    <t>$12,325.0</t>
+  </si>
+  <si>
+    <t>$11,715.0</t>
   </si>
   <si>
     <t>$10,892.5</t>
@@ -637,13 +604,10 @@
     <t>$10,194.0</t>
   </si>
   <si>
-    <t>$9,385.0</t>
-  </si>
-  <si>
     <t>$9,022.5</t>
   </si>
   <si>
-    <t>$8,685.0</t>
+    <t>$8,650.0</t>
   </si>
   <si>
     <t>$8,290.0</t>
@@ -655,9 +619,6 @@
     <t>$7,937.0</t>
   </si>
   <si>
-    <t>$7,930.0</t>
-  </si>
-  <si>
     <t>$7,783.0</t>
   </si>
   <si>
@@ -667,10 +628,19 @@
     <t>$7,470.0</t>
   </si>
   <si>
-    <t>$6,665.0</t>
-  </si>
-  <si>
-    <t>$6,427.5</t>
+    <t>$7,295.0</t>
+  </si>
+  <si>
+    <t>$6,865.0</t>
+  </si>
+  <si>
+    <t>$6,852.5</t>
+  </si>
+  <si>
+    <t>$6,772.5</t>
+  </si>
+  <si>
+    <t>$6,380.0</t>
   </si>
   <si>
     <t>$6,203.0</t>
@@ -679,33 +649,21 @@
     <t>$5,472.0</t>
   </si>
   <si>
-    <t>$5,270.0</t>
-  </si>
-  <si>
     <t>$5,147.5</t>
   </si>
   <si>
     <t>$5,105.0</t>
   </si>
   <si>
-    <t>$4,755.0</t>
-  </si>
-  <si>
     <t>$4,643.0</t>
   </si>
   <si>
-    <t>$4,605.0</t>
-  </si>
-  <si>
     <t>$4,090.0</t>
   </si>
   <si>
     <t>$3,835.0</t>
   </si>
   <si>
-    <t>$3,827.5</t>
-  </si>
-  <si>
     <t>$3,740.0</t>
   </si>
   <si>
@@ -721,7 +679,7 @@
     <t>$3,285.0</t>
   </si>
   <si>
-    <t>$3,182.5</t>
+    <t>$2,882.5</t>
   </si>
   <si>
     <t>$2,765.0</t>
@@ -730,7 +688,10 @@
     <t>$2,665.0</t>
   </si>
   <si>
-    <t>$2,307.5</t>
+    <t>$2,549.0</t>
+  </si>
+  <si>
+    <t>$2,448.0</t>
   </si>
   <si>
     <t>$2,190.0</t>
@@ -739,9 +700,6 @@
     <t>$2,165.0</t>
   </si>
   <si>
-    <t>$2,136.0</t>
-  </si>
-  <si>
     <t>$2,127.5</t>
   </si>
   <si>
@@ -763,6 +721,9 @@
     <t>$1,552.5</t>
   </si>
   <si>
+    <t>$1,505.0</t>
+  </si>
+  <si>
     <t>$1,425.0</t>
   </si>
   <si>
@@ -772,24 +733,21 @@
     <t>$1,385.0</t>
   </si>
   <si>
+    <t>$1,347.5</t>
+  </si>
+  <si>
     <t>$1,335.0</t>
   </si>
   <si>
     <t>$1,325.0</t>
   </si>
   <si>
-    <t>$1,260.0</t>
-  </si>
-  <si>
-    <t>$1,212.5</t>
+    <t>$1,312.5</t>
   </si>
   <si>
     <t>$1,060.0</t>
   </si>
   <si>
-    <t>$995.0</t>
-  </si>
-  <si>
     <t>$984.0</t>
   </si>
   <si>
@@ -802,9 +760,6 @@
     <t>$817.5</t>
   </si>
   <si>
-    <t>$815.0</t>
-  </si>
-  <si>
     <t>$789.0</t>
   </si>
   <si>
@@ -832,9 +787,15 @@
     <t>$550.0</t>
   </si>
   <si>
+    <t>$537.5</t>
+  </si>
+  <si>
     <t>$492.0</t>
   </si>
   <si>
+    <t>$490.0</t>
+  </si>
+  <si>
     <t>$487.5</t>
   </si>
   <si>
@@ -856,27 +817,33 @@
     <t>$400.0</t>
   </si>
   <si>
+    <t>$395.0</t>
+  </si>
+  <si>
     <t>$390.0</t>
   </si>
   <si>
     <t>$387.5</t>
   </si>
   <si>
+    <t>$347.5</t>
+  </si>
+  <si>
     <t>$345.0</t>
   </si>
   <si>
-    <t>$342.5</t>
-  </si>
-  <si>
     <t>$317.5</t>
   </si>
   <si>
+    <t>$307.5</t>
+  </si>
+  <si>
+    <t>$297.5</t>
+  </si>
+  <si>
     <t>$292.0</t>
   </si>
   <si>
-    <t>$257.5</t>
-  </si>
-  <si>
     <t>$170.0</t>
   </si>
   <si>
@@ -905,6 +872,9 @@
   </si>
   <si>
     <t>$102.0</t>
+  </si>
+  <si>
+    <t>$80.0</t>
   </si>
   <si>
     <t>$50.0</t>
@@ -1295,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1314,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1322,7 +1292,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1330,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1338,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1346,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1354,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1362,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1370,7 +1340,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1378,7 +1348,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1386,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1394,7 +1364,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1402,7 +1372,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1410,7 +1380,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1418,7 +1388,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1426,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1434,7 +1404,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1442,7 +1412,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1450,7 +1420,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1458,7 +1428,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1466,7 +1436,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1474,7 +1444,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1482,7 +1452,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1490,7 +1460,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1498,7 +1468,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1506,7 +1476,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1514,7 +1484,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1522,7 +1492,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1530,7 +1500,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1538,7 +1508,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1546,7 +1516,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1554,7 +1524,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1562,7 +1532,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1570,7 +1540,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1578,7 +1548,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1586,7 +1556,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1594,7 +1564,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1602,7 +1572,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1610,7 +1580,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1618,7 +1588,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1626,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1634,7 +1604,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1642,7 +1612,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1650,7 +1620,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1658,7 +1628,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1666,7 +1636,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1674,7 +1644,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1682,7 +1652,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1690,7 +1660,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1698,7 +1668,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1706,7 +1676,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1714,7 +1684,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1722,7 +1692,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1730,7 +1700,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1738,7 +1708,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1746,7 +1716,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1754,7 +1724,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1762,7 +1732,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1770,7 +1740,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1778,7 +1748,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1786,7 +1756,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1794,7 +1764,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1802,7 +1772,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1810,7 +1780,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1818,7 +1788,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1826,7 +1796,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1834,7 +1804,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1842,7 +1812,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1850,7 +1820,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1858,7 +1828,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1866,7 +1836,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1874,7 +1844,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1882,7 +1852,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1890,7 +1860,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1898,7 +1868,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1906,7 +1876,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1914,7 +1884,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1922,7 +1892,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1930,7 +1900,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1938,7 +1908,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1946,7 +1916,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1954,7 +1924,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1962,7 +1932,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1970,7 +1940,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1978,7 +1948,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1986,7 +1956,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1994,7 +1964,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2002,7 +1972,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2010,7 +1980,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2018,7 +1988,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2026,7 +1996,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2034,7 +2004,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2042,7 +2012,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2050,7 +2020,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2058,7 +2028,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2066,7 +2036,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2074,7 +2044,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2082,7 +2052,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2090,7 +2060,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2098,7 +2068,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2106,7 +2076,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2114,7 +2084,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2122,7 +2092,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2130,7 +2100,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2138,7 +2108,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2146,7 +2116,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2154,7 +2124,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2162,7 +2132,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2170,7 +2140,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2178,7 +2148,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2186,7 +2156,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2194,7 +2164,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2202,7 +2172,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2210,7 +2180,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2218,7 +2188,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2226,7 +2196,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2234,7 +2204,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2242,7 +2212,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2250,7 +2220,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2258,7 +2228,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2266,7 +2236,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2274,7 +2244,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2282,7 +2252,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2290,7 +2260,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2298,7 +2268,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2306,7 +2276,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2314,7 +2284,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2322,7 +2292,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2330,7 +2300,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2338,7 +2308,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2346,7 +2316,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2354,7 +2324,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2362,7 +2332,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2370,7 +2340,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2378,7 +2348,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2386,7 +2356,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2394,7 +2364,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2402,7 +2372,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2410,7 +2380,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2418,7 +2388,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2426,7 +2396,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2434,7 +2404,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2442,7 +2412,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2450,7 +2420,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2458,7 +2428,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2466,7 +2436,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2474,7 +2444,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2482,7 +2452,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2490,7 +2460,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2498,7 +2468,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2506,7 +2476,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2514,39 +2484,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B153" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B154" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B156" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/FinalOutput-By_Ticker.xlsx
+++ b/FinalOutput-By_Ticker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="281">
   <si>
     <t>dollarsTradedTodayApprox</t>
   </si>
@@ -22,892 +22,841 @@
     <t>Ticker</t>
   </si>
   <si>
-    <t>WYNN</t>
-  </si>
-  <si>
-    <t>ULTA</t>
-  </si>
-  <si>
-    <t>ASO</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>GMS</t>
-  </si>
-  <si>
-    <t>ACAD</t>
-  </si>
-  <si>
-    <t>NCLH</t>
-  </si>
-  <si>
-    <t>BMBL</t>
-  </si>
-  <si>
-    <t>ACMR</t>
-  </si>
-  <si>
-    <t>XLRN</t>
-  </si>
-  <si>
-    <t>DELL</t>
-  </si>
-  <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>OXY</t>
-  </si>
-  <si>
-    <t>AVAV</t>
-  </si>
-  <si>
-    <t>WORK</t>
-  </si>
-  <si>
-    <t>DRI</t>
-  </si>
-  <si>
-    <t>CCJ</t>
-  </si>
-  <si>
-    <t>RAMP</t>
-  </si>
-  <si>
-    <t>SYY</t>
-  </si>
-  <si>
-    <t>BLD</t>
-  </si>
-  <si>
-    <t>OLLI</t>
-  </si>
-  <si>
-    <t>NLOK</t>
-  </si>
-  <si>
-    <t>BCC</t>
-  </si>
-  <si>
-    <t>BWXT</t>
-  </si>
-  <si>
-    <t>JBLU</t>
-  </si>
-  <si>
-    <t>CIEN</t>
-  </si>
-  <si>
-    <t>LBTYK</t>
-  </si>
-  <si>
-    <t>NNOX</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>YELL</t>
-  </si>
-  <si>
-    <t>CTVA</t>
-  </si>
-  <si>
-    <t>PLAN</t>
-  </si>
-  <si>
-    <t>ATSG</t>
-  </si>
-  <si>
-    <t>CYTK</t>
-  </si>
-  <si>
-    <t>BEPC</t>
-  </si>
-  <si>
-    <t>CCMP</t>
-  </si>
-  <si>
-    <t>AAN</t>
-  </si>
-  <si>
-    <t>BRKR</t>
-  </si>
-  <si>
-    <t>ADT</t>
-  </si>
-  <si>
-    <t>UNFI</t>
-  </si>
-  <si>
-    <t>INMD</t>
-  </si>
-  <si>
-    <t>UTZ</t>
-  </si>
-  <si>
-    <t>PPL</t>
-  </si>
-  <si>
-    <t>MYOV</t>
-  </si>
-  <si>
-    <t>BCEL</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>JBL</t>
-  </si>
-  <si>
-    <t>WMB</t>
-  </si>
-  <si>
-    <t>AQN</t>
-  </si>
-  <si>
-    <t>MTN</t>
-  </si>
-  <si>
-    <t>BCEI</t>
-  </si>
-  <si>
-    <t>WTRG</t>
-  </si>
-  <si>
-    <t>ARDX</t>
-  </si>
-  <si>
-    <t>CHEF</t>
-  </si>
-  <si>
-    <t>AQB</t>
-  </si>
-  <si>
-    <t>KKR</t>
-  </si>
-  <si>
-    <t>IBN</t>
-  </si>
-  <si>
-    <t>SONO</t>
-  </si>
-  <si>
-    <t>NEWR</t>
-  </si>
-  <si>
-    <t>ITCI</t>
-  </si>
-  <si>
-    <t>HTZGQ</t>
-  </si>
-  <si>
-    <t>SILV</t>
-  </si>
-  <si>
-    <t>RHP</t>
-  </si>
-  <si>
-    <t>NAV</t>
-  </si>
-  <si>
-    <t>JAZZ</t>
-  </si>
-  <si>
-    <t>WEC</t>
-  </si>
-  <si>
-    <t>EVRG</t>
-  </si>
-  <si>
-    <t>AERI</t>
-  </si>
-  <si>
-    <t>UGI</t>
-  </si>
-  <si>
-    <t>MDLA</t>
-  </si>
-  <si>
-    <t>CVE</t>
-  </si>
-  <si>
-    <t>AGEN</t>
-  </si>
-  <si>
-    <t>IDCC</t>
-  </si>
-  <si>
-    <t>USAC</t>
-  </si>
-  <si>
-    <t>ALGM</t>
-  </si>
-  <si>
-    <t>OSH</t>
-  </si>
-  <si>
-    <t>EPZM</t>
-  </si>
-  <si>
-    <t>TROX</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>DCI</t>
-  </si>
-  <si>
-    <t>GPMT</t>
-  </si>
-  <si>
-    <t>BKEP</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>TMDX</t>
-  </si>
-  <si>
-    <t>GNL</t>
-  </si>
-  <si>
-    <t>CARA</t>
-  </si>
-  <si>
-    <t>QLYS</t>
-  </si>
-  <si>
-    <t>HAE</t>
-  </si>
-  <si>
-    <t>CAL</t>
-  </si>
-  <si>
-    <t>BRG</t>
-  </si>
-  <si>
-    <t>SMSI</t>
-  </si>
-  <si>
-    <t>KIN</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>ARAV</t>
-  </si>
-  <si>
-    <t>LCI</t>
-  </si>
-  <si>
-    <t>PLX</t>
-  </si>
-  <si>
-    <t>RBA</t>
-  </si>
-  <si>
-    <t>RADA</t>
-  </si>
-  <si>
-    <t>IEP</t>
-  </si>
-  <si>
-    <t>GRBK</t>
-  </si>
-  <si>
-    <t>BRFS</t>
-  </si>
-  <si>
-    <t>VGR</t>
-  </si>
-  <si>
-    <t>KRMD</t>
-  </si>
-  <si>
-    <t>VOYA</t>
-  </si>
-  <si>
-    <t>CEMI</t>
-  </si>
-  <si>
-    <t>WIFI</t>
-  </si>
-  <si>
-    <t>CRI</t>
-  </si>
-  <si>
-    <t>RCM</t>
-  </si>
-  <si>
-    <t>SUPN</t>
-  </si>
-  <si>
-    <t>QTRX</t>
-  </si>
-  <si>
-    <t>JELD</t>
-  </si>
-  <si>
-    <t>SID</t>
-  </si>
-  <si>
-    <t>IPI</t>
-  </si>
-  <si>
-    <t>STIM</t>
-  </si>
-  <si>
-    <t>CVA</t>
-  </si>
-  <si>
-    <t>HALL</t>
-  </si>
-  <si>
-    <t>SMFG</t>
-  </si>
-  <si>
-    <t>APTX</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>REKR</t>
-  </si>
-  <si>
-    <t>CWK</t>
-  </si>
-  <si>
-    <t>CNR</t>
-  </si>
-  <si>
-    <t>MBI</t>
-  </si>
-  <si>
-    <t>MATX</t>
-  </si>
-  <si>
-    <t>UUUU</t>
-  </si>
-  <si>
-    <t>UEC</t>
-  </si>
-  <si>
-    <t>LEAF</t>
-  </si>
-  <si>
-    <t>KYN</t>
-  </si>
-  <si>
-    <t>CNTY</t>
-  </si>
-  <si>
-    <t>FNHC</t>
-  </si>
-  <si>
-    <t>EZPW</t>
-  </si>
-  <si>
-    <t>SBBP</t>
-  </si>
-  <si>
-    <t>EVC</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>CNA</t>
-  </si>
-  <si>
-    <t>MTEM</t>
-  </si>
-  <si>
-    <t>MDRX</t>
-  </si>
-  <si>
-    <t>ZNTL</t>
-  </si>
-  <si>
-    <t>LAUR</t>
-  </si>
-  <si>
-    <t>PRTK</t>
-  </si>
-  <si>
-    <t>EXTN</t>
-  </si>
-  <si>
-    <t>TSLX</t>
-  </si>
-  <si>
-    <t>CCLP</t>
-  </si>
-  <si>
-    <t>SIBN</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>LQDT</t>
-  </si>
-  <si>
-    <t>VOLT</t>
-  </si>
-  <si>
-    <t>IMH</t>
-  </si>
-  <si>
-    <t>GROW</t>
-  </si>
-  <si>
-    <t>USAT</t>
-  </si>
-  <si>
-    <t>$1,578,202.5</t>
-  </si>
-  <si>
-    <t>$620,330.0</t>
-  </si>
-  <si>
-    <t>$402,300.0</t>
-  </si>
-  <si>
-    <t>$256,175.0</t>
-  </si>
-  <si>
-    <t>$174,430.0</t>
-  </si>
-  <si>
-    <t>$137,470.5</t>
-  </si>
-  <si>
-    <t>$133,725.0</t>
-  </si>
-  <si>
-    <t>$120,690.0</t>
-  </si>
-  <si>
-    <t>$115,935.0</t>
-  </si>
-  <si>
-    <t>$99,120.0</t>
-  </si>
-  <si>
-    <t>$83,580.0</t>
-  </si>
-  <si>
-    <t>$81,440.0</t>
-  </si>
-  <si>
-    <t>$77,682.5</t>
-  </si>
-  <si>
-    <t>$72,705.0</t>
-  </si>
-  <si>
-    <t>$68,264.0</t>
-  </si>
-  <si>
-    <t>$46,538.0</t>
-  </si>
-  <si>
-    <t>$44,763.0</t>
-  </si>
-  <si>
-    <t>$39,360.0</t>
-  </si>
-  <si>
-    <t>$37,065.0</t>
-  </si>
-  <si>
-    <t>$33,760.0</t>
-  </si>
-  <si>
-    <t>$31,017.5</t>
-  </si>
-  <si>
-    <t>$29,713.0</t>
-  </si>
-  <si>
-    <t>$26,694.7</t>
-  </si>
-  <si>
-    <t>$23,355.0</t>
-  </si>
-  <si>
-    <t>$21,371.0</t>
-  </si>
-  <si>
-    <t>$20,071.0</t>
-  </si>
-  <si>
-    <t>$19,670.0</t>
-  </si>
-  <si>
-    <t>$17,850.0</t>
-  </si>
-  <si>
-    <t>$15,010.0</t>
-  </si>
-  <si>
-    <t>$14,999.5</t>
-  </si>
-  <si>
-    <t>$14,569.0</t>
-  </si>
-  <si>
-    <t>$14,331.5</t>
-  </si>
-  <si>
-    <t>$13,687.5</t>
-  </si>
-  <si>
-    <t>$13,649.0</t>
-  </si>
-  <si>
-    <t>$13,225.0</t>
-  </si>
-  <si>
-    <t>$12,895.0</t>
-  </si>
-  <si>
-    <t>$12,652.5</t>
-  </si>
-  <si>
-    <t>$12,325.0</t>
-  </si>
-  <si>
-    <t>$11,715.0</t>
-  </si>
-  <si>
-    <t>$10,892.5</t>
-  </si>
-  <si>
-    <t>$10,690.0</t>
-  </si>
-  <si>
-    <t>$10,515.0</t>
-  </si>
-  <si>
-    <t>$10,194.0</t>
-  </si>
-  <si>
-    <t>$9,022.5</t>
-  </si>
-  <si>
-    <t>$8,650.0</t>
-  </si>
-  <si>
-    <t>$8,290.0</t>
-  </si>
-  <si>
-    <t>$8,170.0</t>
-  </si>
-  <si>
-    <t>$7,937.0</t>
-  </si>
-  <si>
-    <t>$7,783.0</t>
-  </si>
-  <si>
-    <t>$7,747.5</t>
-  </si>
-  <si>
-    <t>$7,470.0</t>
-  </si>
-  <si>
-    <t>$7,295.0</t>
-  </si>
-  <si>
-    <t>$6,865.0</t>
-  </si>
-  <si>
-    <t>$6,852.5</t>
-  </si>
-  <si>
-    <t>$6,772.5</t>
-  </si>
-  <si>
-    <t>$6,380.0</t>
-  </si>
-  <si>
-    <t>$6,203.0</t>
-  </si>
-  <si>
-    <t>$5,472.0</t>
-  </si>
-  <si>
-    <t>$5,147.5</t>
-  </si>
-  <si>
-    <t>$5,105.0</t>
-  </si>
-  <si>
-    <t>$4,643.0</t>
-  </si>
-  <si>
-    <t>$4,090.0</t>
-  </si>
-  <si>
-    <t>$3,835.0</t>
-  </si>
-  <si>
-    <t>$3,740.0</t>
-  </si>
-  <si>
-    <t>$3,699.0</t>
-  </si>
-  <si>
-    <t>$3,465.0</t>
-  </si>
-  <si>
-    <t>$3,340.0</t>
-  </si>
-  <si>
-    <t>$3,285.0</t>
-  </si>
-  <si>
-    <t>$2,882.5</t>
-  </si>
-  <si>
-    <t>$2,765.0</t>
-  </si>
-  <si>
-    <t>$2,665.0</t>
-  </si>
-  <si>
-    <t>$2,549.0</t>
-  </si>
-  <si>
-    <t>$2,448.0</t>
-  </si>
-  <si>
-    <t>$2,190.0</t>
-  </si>
-  <si>
-    <t>$2,165.0</t>
-  </si>
-  <si>
-    <t>$2,127.5</t>
-  </si>
-  <si>
-    <t>$1,965.0</t>
-  </si>
-  <si>
-    <t>$1,952.5</t>
-  </si>
-  <si>
-    <t>$1,720.0</t>
+    <t>DDOG</t>
+  </si>
+  <si>
+    <t>AZO</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>VFC</t>
+  </si>
+  <si>
+    <t>YETI</t>
+  </si>
+  <si>
+    <t>AAP</t>
+  </si>
+  <si>
+    <t>BBY</t>
+  </si>
+  <si>
+    <t>ROKU</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>TSN</t>
+  </si>
+  <si>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>BGCP</t>
+  </si>
+  <si>
+    <t>TRI</t>
+  </si>
+  <si>
+    <t>DEO</t>
+  </si>
+  <si>
+    <t>PENN</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ANF</t>
+  </si>
+  <si>
+    <t>VSH</t>
+  </si>
+  <si>
+    <t>AZEK</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>EQH</t>
+  </si>
+  <si>
+    <t>KSS</t>
+  </si>
+  <si>
+    <t>WEN</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>AIZ</t>
+  </si>
+  <si>
+    <t>BLL</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>USFD</t>
+  </si>
+  <si>
+    <t>CRL</t>
+  </si>
+  <si>
+    <t>VIH</t>
+  </si>
+  <si>
+    <t>JACK</t>
+  </si>
+  <si>
+    <t>WAT</t>
+  </si>
+  <si>
+    <t>IAC</t>
+  </si>
+  <si>
+    <t>ALC</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>GPN</t>
+  </si>
+  <si>
+    <t>ENR</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>THO</t>
+  </si>
+  <si>
+    <t>EVRI</t>
+  </si>
+  <si>
+    <t>DFIN</t>
+  </si>
+  <si>
+    <t>BKE</t>
+  </si>
+  <si>
+    <t>ALLT</t>
+  </si>
+  <si>
+    <t>ENIA</t>
+  </si>
+  <si>
+    <t>STAA</t>
+  </si>
+  <si>
+    <t>VVV</t>
+  </si>
+  <si>
+    <t>EURN</t>
+  </si>
+  <si>
+    <t>PVH</t>
+  </si>
+  <si>
+    <t>YEXT</t>
+  </si>
+  <si>
+    <t>ABM</t>
+  </si>
+  <si>
+    <t>CFX</t>
+  </si>
+  <si>
+    <t>VRRM</t>
+  </si>
+  <si>
+    <t>TREX</t>
+  </si>
+  <si>
+    <t>LUMN</t>
+  </si>
+  <si>
+    <t>ASMB</t>
+  </si>
+  <si>
+    <t>ECPG</t>
+  </si>
+  <si>
+    <t>BPYU</t>
+  </si>
+  <si>
+    <t>ABEV</t>
+  </si>
+  <si>
+    <t>RY</t>
+  </si>
+  <si>
+    <t>MLCO</t>
+  </si>
+  <si>
+    <t>CAPR</t>
+  </si>
+  <si>
+    <t>FLEX</t>
+  </si>
+  <si>
+    <t>NCNO</t>
+  </si>
+  <si>
+    <t>GGB</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>PFSI</t>
+  </si>
+  <si>
+    <t>SSRM</t>
+  </si>
+  <si>
+    <t>ALSN</t>
+  </si>
+  <si>
+    <t>SFIX</t>
+  </si>
+  <si>
+    <t>BPMP</t>
+  </si>
+  <si>
+    <t>CGNT</t>
+  </si>
+  <si>
+    <t>TDG</t>
+  </si>
+  <si>
+    <t>DEA</t>
+  </si>
+  <si>
+    <t>JCOM</t>
+  </si>
+  <si>
+    <t>SMG</t>
+  </si>
+  <si>
+    <t>MYGN</t>
+  </si>
+  <si>
+    <t>TPTX</t>
+  </si>
+  <si>
+    <t>VRA</t>
+  </si>
+  <si>
+    <t>EARS</t>
+  </si>
+  <si>
+    <t>BKD</t>
+  </si>
+  <si>
+    <t>ADVM</t>
+  </si>
+  <si>
+    <t>ALTR</t>
+  </si>
+  <si>
+    <t>IRWD</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>BBDC</t>
+  </si>
+  <si>
+    <t>FOUR</t>
+  </si>
+  <si>
+    <t>AVRO</t>
+  </si>
+  <si>
+    <t>LDOS</t>
+  </si>
+  <si>
+    <t>BPT</t>
+  </si>
+  <si>
+    <t>ATRS</t>
+  </si>
+  <si>
+    <t>EMKR</t>
+  </si>
+  <si>
+    <t>KRO</t>
+  </si>
+  <si>
+    <t>HEI</t>
+  </si>
+  <si>
+    <t>CTIC</t>
+  </si>
+  <si>
+    <t>SLQT</t>
+  </si>
+  <si>
+    <t>AMRX</t>
+  </si>
+  <si>
+    <t>MESO</t>
+  </si>
+  <si>
+    <t>AXU</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>TMX</t>
+  </si>
+  <si>
+    <t>CIG</t>
+  </si>
+  <si>
+    <t>CVGI</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>GMED</t>
+  </si>
+  <si>
+    <t>SSL</t>
+  </si>
+  <si>
+    <t>MNRO</t>
+  </si>
+  <si>
+    <t>KMT</t>
+  </si>
+  <si>
+    <t>CGBD</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>MCY</t>
+  </si>
+  <si>
+    <t>LSPD</t>
+  </si>
+  <si>
+    <t>LILAK</t>
+  </si>
+  <si>
+    <t>GKOS</t>
+  </si>
+  <si>
+    <t>GNMK</t>
+  </si>
+  <si>
+    <t>PCRX</t>
+  </si>
+  <si>
+    <t>CLNC</t>
+  </si>
+  <si>
+    <t>GAU</t>
+  </si>
+  <si>
+    <t>MNR</t>
+  </si>
+  <si>
+    <t>ANIX</t>
+  </si>
+  <si>
+    <t>BRBR</t>
+  </si>
+  <si>
+    <t>HBM</t>
+  </si>
+  <si>
+    <t>TGH</t>
+  </si>
+  <si>
+    <t>GENE</t>
+  </si>
+  <si>
+    <t>HRTX</t>
+  </si>
+  <si>
+    <t>NLTX</t>
+  </si>
+  <si>
+    <t>EYE</t>
+  </si>
+  <si>
+    <t>ORA</t>
+  </si>
+  <si>
+    <t>DRH</t>
+  </si>
+  <si>
+    <t>GALT</t>
+  </si>
+  <si>
+    <t>GEL</t>
+  </si>
+  <si>
+    <t>PAYA</t>
+  </si>
+  <si>
+    <t>CCCC</t>
+  </si>
+  <si>
+    <t>GNK</t>
+  </si>
+  <si>
+    <t>RGS</t>
+  </si>
+  <si>
+    <t>SPNE</t>
+  </si>
+  <si>
+    <t>MVO</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>OCSL</t>
+  </si>
+  <si>
+    <t>GSM</t>
+  </si>
+  <si>
+    <t>$4,349,249.0</t>
+  </si>
+  <si>
+    <t>$2,719,045.0</t>
+  </si>
+  <si>
+    <t>$2,328,445.0</t>
+  </si>
+  <si>
+    <t>$968,451.5</t>
+  </si>
+  <si>
+    <t>$956,223.0</t>
+  </si>
+  <si>
+    <t>$745,715.0</t>
+  </si>
+  <si>
+    <t>$572,936.5</t>
+  </si>
+  <si>
+    <t>$459,430.0</t>
+  </si>
+  <si>
+    <t>$406,265.0</t>
+  </si>
+  <si>
+    <t>$266,794.0</t>
+  </si>
+  <si>
+    <t>$257,702.5</t>
+  </si>
+  <si>
+    <t>$238,565.0</t>
+  </si>
+  <si>
+    <t>$238,127.0</t>
+  </si>
+  <si>
+    <t>$233,215.0</t>
+  </si>
+  <si>
+    <t>$205,555.0</t>
+  </si>
+  <si>
+    <t>$143,996.0</t>
+  </si>
+  <si>
+    <t>$140,447.5</t>
+  </si>
+  <si>
+    <t>$133,563.5</t>
+  </si>
+  <si>
+    <t>$130,057.5</t>
+  </si>
+  <si>
+    <t>$106,610.0</t>
+  </si>
+  <si>
+    <t>$104,982.5</t>
+  </si>
+  <si>
+    <t>$91,595.0</t>
+  </si>
+  <si>
+    <t>$90,000.0</t>
+  </si>
+  <si>
+    <t>$83,563.0</t>
+  </si>
+  <si>
+    <t>$77,330.0</t>
+  </si>
+  <si>
+    <t>$71,405.0</t>
+  </si>
+  <si>
+    <t>$65,837.5</t>
+  </si>
+  <si>
+    <t>$64,715.0</t>
+  </si>
+  <si>
+    <t>$64,370.0</t>
+  </si>
+  <si>
+    <t>$64,120.0</t>
+  </si>
+  <si>
+    <t>$60,335.0</t>
+  </si>
+  <si>
+    <t>$58,075.0</t>
+  </si>
+  <si>
+    <t>$55,325.0</t>
+  </si>
+  <si>
+    <t>$53,810.0</t>
+  </si>
+  <si>
+    <t>$53,282.5</t>
+  </si>
+  <si>
+    <t>$46,120.0</t>
+  </si>
+  <si>
+    <t>$44,555.0</t>
+  </si>
+  <si>
+    <t>$43,380.0</t>
+  </si>
+  <si>
+    <t>$42,240.0</t>
+  </si>
+  <si>
+    <t>$35,747.5</t>
+  </si>
+  <si>
+    <t>$34,782.5</t>
+  </si>
+  <si>
+    <t>$33,065.0</t>
+  </si>
+  <si>
+    <t>$31,748.0</t>
+  </si>
+  <si>
+    <t>$28,797.5</t>
+  </si>
+  <si>
+    <t>$28,657.5</t>
+  </si>
+  <si>
+    <t>$28,364.0</t>
+  </si>
+  <si>
+    <t>$25,977.5</t>
+  </si>
+  <si>
+    <t>$21,011.0</t>
+  </si>
+  <si>
+    <t>$18,897.5</t>
+  </si>
+  <si>
+    <t>$16,500.0</t>
+  </si>
+  <si>
+    <t>$16,140.0</t>
+  </si>
+  <si>
+    <t>$15,085.0</t>
+  </si>
+  <si>
+    <t>$14,762.5</t>
+  </si>
+  <si>
+    <t>$13,652.5</t>
+  </si>
+  <si>
+    <t>$13,542.0</t>
+  </si>
+  <si>
+    <t>$13,517.5</t>
+  </si>
+  <si>
+    <t>$13,452.5</t>
+  </si>
+  <si>
+    <t>$13,355.0</t>
+  </si>
+  <si>
+    <t>$13,149.0</t>
+  </si>
+  <si>
+    <t>$12,985.0</t>
+  </si>
+  <si>
+    <t>$11,877.0</t>
+  </si>
+  <si>
+    <t>$11,232.5</t>
+  </si>
+  <si>
+    <t>$10,870.0</t>
+  </si>
+  <si>
+    <t>$10,790.0</t>
+  </si>
+  <si>
+    <t>$9,865.0</t>
+  </si>
+  <si>
+    <t>$9,005.0</t>
+  </si>
+  <si>
+    <t>$8,785.0</t>
+  </si>
+  <si>
+    <t>$8,545.0</t>
+  </si>
+  <si>
+    <t>$8,459.0</t>
+  </si>
+  <si>
+    <t>$8,445.0</t>
+  </si>
+  <si>
+    <t>$7,998.0</t>
+  </si>
+  <si>
+    <t>$7,307.5</t>
+  </si>
+  <si>
+    <t>$7,122.5</t>
+  </si>
+  <si>
+    <t>$6,840.0</t>
+  </si>
+  <si>
+    <t>$6,600.0</t>
+  </si>
+  <si>
+    <t>$6,285.0</t>
+  </si>
+  <si>
+    <t>$6,130.0</t>
+  </si>
+  <si>
+    <t>$5,457.0</t>
+  </si>
+  <si>
+    <t>$5,200.0</t>
+  </si>
+  <si>
+    <t>$5,047.5</t>
+  </si>
+  <si>
+    <t>$4,907.0</t>
+  </si>
+  <si>
+    <t>$4,672.5</t>
+  </si>
+  <si>
+    <t>$4,570.0</t>
+  </si>
+  <si>
+    <t>$4,557.5</t>
+  </si>
+  <si>
+    <t>$4,000.0</t>
+  </si>
+  <si>
+    <t>$3,805.0</t>
+  </si>
+  <si>
+    <t>$3,545.0</t>
+  </si>
+  <si>
+    <t>$3,222.5</t>
+  </si>
+  <si>
+    <t>$3,110.0</t>
+  </si>
+  <si>
+    <t>$3,097.5</t>
+  </si>
+  <si>
+    <t>$2,905.0</t>
+  </si>
+  <si>
+    <t>$2,722.5</t>
+  </si>
+  <si>
+    <t>$2,697.5</t>
+  </si>
+  <si>
+    <t>$2,295.0</t>
+  </si>
+  <si>
+    <t>$2,188.0</t>
+  </si>
+  <si>
+    <t>$1,947.5</t>
+  </si>
+  <si>
+    <t>$1,935.0</t>
+  </si>
+  <si>
+    <t>$1,907.5</t>
+  </si>
+  <si>
+    <t>$1,855.0</t>
+  </si>
+  <si>
+    <t>$1,830.0</t>
+  </si>
+  <si>
+    <t>$1,750.0</t>
   </si>
   <si>
     <t>$1,695.0</t>
   </si>
   <si>
-    <t>$1,670.0</t>
-  </si>
-  <si>
-    <t>$1,552.5</t>
-  </si>
-  <si>
-    <t>$1,505.0</t>
-  </si>
-  <si>
-    <t>$1,425.0</t>
-  </si>
-  <si>
-    <t>$1,397.5</t>
-  </si>
-  <si>
-    <t>$1,385.0</t>
-  </si>
-  <si>
-    <t>$1,347.5</t>
-  </si>
-  <si>
-    <t>$1,335.0</t>
-  </si>
-  <si>
-    <t>$1,325.0</t>
-  </si>
-  <si>
-    <t>$1,312.5</t>
-  </si>
-  <si>
-    <t>$1,060.0</t>
-  </si>
-  <si>
-    <t>$984.0</t>
-  </si>
-  <si>
-    <t>$867.5</t>
-  </si>
-  <si>
-    <t>$855.0</t>
-  </si>
-  <si>
-    <t>$817.5</t>
-  </si>
-  <si>
-    <t>$789.0</t>
-  </si>
-  <si>
-    <t>$782.0</t>
-  </si>
-  <si>
-    <t>$725.0</t>
-  </si>
-  <si>
-    <t>$655.0</t>
-  </si>
-  <si>
-    <t>$650.0</t>
-  </si>
-  <si>
-    <t>$622.5</t>
-  </si>
-  <si>
-    <t>$615.0</t>
-  </si>
-  <si>
-    <t>$585.0</t>
-  </si>
-  <si>
-    <t>$550.0</t>
-  </si>
-  <si>
-    <t>$537.5</t>
-  </si>
-  <si>
-    <t>$492.0</t>
-  </si>
-  <si>
-    <t>$490.0</t>
+    <t>$1,482.5</t>
+  </si>
+  <si>
+    <t>$1,440.0</t>
+  </si>
+  <si>
+    <t>$1,437.5</t>
+  </si>
+  <si>
+    <t>$1,417.5</t>
+  </si>
+  <si>
+    <t>$1,350.0</t>
+  </si>
+  <si>
+    <t>$1,330.0</t>
+  </si>
+  <si>
+    <t>$1,192.5</t>
+  </si>
+  <si>
+    <t>$1,092.5</t>
+  </si>
+  <si>
+    <t>$910.0</t>
+  </si>
+  <si>
+    <t>$865.0</t>
+  </si>
+  <si>
+    <t>$822.5</t>
+  </si>
+  <si>
+    <t>$745.0</t>
+  </si>
+  <si>
+    <t>$662.5</t>
+  </si>
+  <si>
+    <t>$587.5</t>
+  </si>
+  <si>
+    <t>$520.0</t>
+  </si>
+  <si>
+    <t>$492.5</t>
   </si>
   <si>
     <t>$487.5</t>
   </si>
   <si>
-    <t>$486.0</t>
-  </si>
-  <si>
-    <t>$480.0</t>
-  </si>
-  <si>
-    <t>$475.0</t>
-  </si>
-  <si>
-    <t>$453.0</t>
-  </si>
-  <si>
-    <t>$421.0</t>
-  </si>
-  <si>
-    <t>$400.0</t>
-  </si>
-  <si>
-    <t>$395.0</t>
+    <t>$402.5</t>
   </si>
   <si>
     <t>$390.0</t>
   </si>
   <si>
-    <t>$387.5</t>
-  </si>
-  <si>
-    <t>$347.5</t>
-  </si>
-  <si>
-    <t>$345.0</t>
-  </si>
-  <si>
-    <t>$317.5</t>
-  </si>
-  <si>
-    <t>$307.5</t>
-  </si>
-  <si>
-    <t>$297.5</t>
-  </si>
-  <si>
-    <t>$292.0</t>
-  </si>
-  <si>
-    <t>$170.0</t>
-  </si>
-  <si>
-    <t>$152.0</t>
-  </si>
-  <si>
-    <t>$151.0</t>
-  </si>
-  <si>
-    <t>$144.0</t>
+    <t>$277.5</t>
+  </si>
+  <si>
+    <t>$245.0</t>
+  </si>
+  <si>
+    <t>$237.5</t>
+  </si>
+  <si>
+    <t>$234.0</t>
+  </si>
+  <si>
+    <t>$230.0</t>
+  </si>
+  <si>
+    <t>$215.0</t>
+  </si>
+  <si>
+    <t>$207.5</t>
+  </si>
+  <si>
+    <t>$177.0</t>
   </si>
   <si>
     <t>$132.5</t>
   </si>
   <si>
-    <t>$130.0</t>
-  </si>
-  <si>
-    <t>$120.0</t>
-  </si>
-  <si>
-    <t>$115.0</t>
-  </si>
-  <si>
-    <t>$112.5</t>
-  </si>
-  <si>
-    <t>$102.0</t>
+    <t>$125.0</t>
+  </si>
+  <si>
+    <t>$90.0</t>
   </si>
   <si>
     <t>$80.0</t>
   </si>
   <si>
-    <t>$50.0</t>
-  </si>
-  <si>
-    <t>$46.0</t>
-  </si>
-  <si>
-    <t>$40.0</t>
-  </si>
-  <si>
-    <t>$37.5</t>
-  </si>
-  <si>
-    <t>$35.0</t>
-  </si>
-  <si>
-    <t>$25.0</t>
-  </si>
-  <si>
-    <t>$20.0</t>
-  </si>
-  <si>
-    <t>$17.5</t>
-  </si>
-  <si>
-    <t>$12.5</t>
-  </si>
-  <si>
-    <t>$10.0</t>
+    <t>$60.0</t>
+  </si>
+  <si>
+    <t>$15.0</t>
+  </si>
+  <si>
+    <t>$7.5</t>
   </si>
   <si>
     <t>$5.0</t>
+  </si>
+  <si>
+    <t>$2.5</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1284,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1292,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1300,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1308,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1316,7 +1265,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1324,7 +1273,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1332,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1340,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1348,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1356,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1364,7 +1313,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1372,7 +1321,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1380,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1388,7 +1337,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1396,7 +1345,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1404,7 +1353,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1412,7 +1361,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1420,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1428,7 +1377,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1436,7 +1385,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1444,7 +1393,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1452,7 +1401,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1460,7 +1409,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1468,7 +1417,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1476,7 +1425,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1484,7 +1433,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1492,7 +1441,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1500,7 +1449,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1508,7 +1457,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1516,7 +1465,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1524,7 +1473,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1532,7 +1481,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1540,7 +1489,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1548,7 +1497,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1556,7 +1505,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1564,7 +1513,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1572,7 +1521,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1580,7 +1529,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1588,7 +1537,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1596,7 +1545,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1604,7 +1553,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1612,7 +1561,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1620,7 +1569,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1628,7 +1577,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1636,7 +1585,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1644,7 +1593,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1652,7 +1601,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1660,7 +1609,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1668,7 +1617,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1676,7 +1625,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1684,7 +1633,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1692,7 +1641,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1700,7 +1649,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1708,7 +1657,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1716,7 +1665,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1724,7 +1673,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1732,7 +1681,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1740,7 +1689,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1748,7 +1697,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1756,7 +1705,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1764,7 +1713,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1772,7 +1721,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1780,7 +1729,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1788,7 +1737,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1796,7 +1745,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1804,7 +1753,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1812,7 +1761,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1820,7 +1769,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1828,7 +1777,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1836,7 +1785,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1844,7 +1793,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1852,7 +1801,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1860,7 +1809,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1868,7 +1817,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1876,7 +1825,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1884,7 +1833,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1892,7 +1841,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1900,7 +1849,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1908,7 +1857,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1916,7 +1865,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1924,7 +1873,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1932,7 +1881,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1940,7 +1889,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1948,7 +1897,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1956,7 +1905,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1964,7 +1913,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1972,7 +1921,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1980,7 +1929,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1988,7 +1937,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1996,7 +1945,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2004,7 +1953,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2012,7 +1961,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2020,7 +1969,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2028,7 +1977,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2036,7 +1985,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2044,7 +1993,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2052,7 +2001,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2060,7 +2009,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2068,7 +2017,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2076,7 +2025,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2084,7 +2033,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2092,7 +2041,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2100,7 +2049,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2108,7 +2057,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2116,7 +2065,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2124,7 +2073,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2132,7 +2081,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2140,7 +2089,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2148,7 +2097,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2156,7 +2105,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2164,7 +2113,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2172,7 +2121,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2180,7 +2129,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2188,7 +2137,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2196,7 +2145,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2204,7 +2153,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2212,7 +2161,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2220,7 +2169,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2228,7 +2177,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2236,7 +2185,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2244,7 +2193,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2252,7 +2201,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2260,7 +2209,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2268,7 +2217,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2276,7 +2225,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2284,7 +2233,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2292,7 +2241,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2300,7 +2249,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2308,7 +2257,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2316,7 +2265,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2324,7 +2273,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2332,7 +2281,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2340,7 +2289,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2348,7 +2297,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2356,7 +2305,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2364,7 +2313,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2372,7 +2321,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2380,7 +2329,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2388,7 +2337,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2396,7 +2345,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2404,87 +2353,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B147" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B148" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B149" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B150" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B151" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B152" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
